--- a/mpath/src/data/qb_zulehner_aspen9.xlsx
+++ b/mpath/src/data/qb_zulehner_aspen9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SuhasVittal/Documents/programming/qcr/src/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SuhasVittal/Documents/programming/quantum_computing/mpath/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3B52CFC-1B2A-884E-8D51-49255E132759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D69A71B9-E44D-EB46-B354-949496E3E3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="2560" windowWidth="26040" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="1060" windowWidth="27240" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="qb_zulehner_aspen9" sheetId="1" r:id="rId1"/>
@@ -30,30 +30,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>SABRE CNOTs</t>
   </si>
@@ -73,13 +51,25 @@
     <t>MPATH_IPS Time</t>
   </si>
   <si>
-    <t>MPATH_BSP CNOTs</t>
-  </si>
-  <si>
-    <t>MPATH_BSP Depth</t>
-  </si>
-  <si>
-    <t>MPATH_BSP Time</t>
+    <t>MPATH_IPS SSOnly CNOTs</t>
+  </si>
+  <si>
+    <t>MPATH_IPS SSOnly Depth</t>
+  </si>
+  <si>
+    <t>MPATH_IPS SSOnly Time</t>
+  </si>
+  <si>
+    <t>Layer Density, mean</t>
+  </si>
+  <si>
+    <t>Layer Density, std.</t>
+  </si>
+  <si>
+    <t>Child Distance, mean</t>
+  </si>
+  <si>
+    <t>Child Distance, std.</t>
   </si>
   <si>
     <t>A* CNOTs</t>
@@ -368,18 +358,12 @@
   </si>
   <si>
     <t>improvement</t>
-  </si>
-  <si>
-    <t>Hybrid CNOTs</t>
-  </si>
-  <si>
-    <t>Hybrid Depth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1213,16 +1197,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O94"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="O99" sqref="O99"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1260,799 +1244,869 @@
         <v>11</v>
       </c>
       <c r="N1" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2">
+        <v>171</v>
+      </c>
+      <c r="C2">
+        <v>319</v>
+      </c>
+      <c r="D2">
+        <v>8.1124871999999695E-2</v>
+      </c>
+      <c r="E2">
         <v>174</v>
       </c>
-      <c r="C2">
-        <v>322</v>
-      </c>
-      <c r="D2">
-        <v>7.4771413000000106E-2</v>
-      </c>
-      <c r="E2">
-        <v>165</v>
-      </c>
       <c r="F2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G2">
-        <v>0.214040798</v>
+        <v>0.22076153600000001</v>
       </c>
       <c r="H2">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="I2">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="J2">
-        <v>0.16348005399999899</v>
+        <v>0.30078964600000002</v>
       </c>
       <c r="K2">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="L2">
+        <v>0.49470799467968901</v>
+      </c>
+      <c r="M2">
+        <v>1.2577319587628799</v>
+      </c>
+      <c r="N2">
+        <v>1.1951650924692301</v>
+      </c>
+      <c r="O2">
         <v>138</v>
       </c>
-      <c r="L2">
+      <c r="P2">
         <v>273</v>
       </c>
-      <c r="M2">
-        <v>5.3822759999997399E-3</v>
-      </c>
-      <c r="N2">
-        <f>MIN(B2,E2,H2)</f>
-        <v>165</v>
-      </c>
-      <c r="O2" cm="1">
-        <f t="array" ref="O2">INDEX(CHOOSE({1,2,3},C2,F2,I2), MATCH(N2, CHOOSE({1,2,3},B2,E2,H2), 0))</f>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q2">
+        <v>5.3188469999998402E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B3">
+        <v>180</v>
+      </c>
+      <c r="C3">
         <v>213</v>
       </c>
-      <c r="C3">
-        <v>247</v>
-      </c>
       <c r="D3">
-        <v>0.110381671999999</v>
+        <v>8.9219272999999794E-2</v>
       </c>
       <c r="E3">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F3">
         <v>178</v>
       </c>
       <c r="G3">
-        <v>8.6561908009999993</v>
+        <v>4.9190188700000004</v>
       </c>
       <c r="H3">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="I3">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="J3">
-        <v>11.492020884999899</v>
+        <v>0.68163571599999995</v>
       </c>
       <c r="K3">
+        <v>1.30666666666666</v>
+      </c>
+      <c r="L3">
+        <v>0.74785619532694103</v>
+      </c>
+      <c r="M3">
+        <v>1.25</v>
+      </c>
+      <c r="N3">
+        <v>1.2247448713915801</v>
+      </c>
+      <c r="O3">
         <v>153</v>
       </c>
-      <c r="L3">
+      <c r="P3">
         <v>217</v>
       </c>
-      <c r="M3">
-        <v>5.2469970000004196E-3</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N66" si="0">MIN(B3,E3,H3)</f>
-        <v>162</v>
-      </c>
-      <c r="O3" cm="1">
-        <f t="array" ref="O3">INDEX(CHOOSE({1,2,3},C3,F3,I3), MATCH(N3, CHOOSE({1,2,3},B3,E3,H3), 0))</f>
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q3">
+        <v>5.7629830000003298E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C4">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="D4">
-        <v>0.492373076999996</v>
+        <v>0.38419133</v>
       </c>
       <c r="E4">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="F4">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="G4">
-        <v>0.90312104099999801</v>
+        <v>2.4722253559999898</v>
       </c>
       <c r="H4">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="I4">
-        <v>1456</v>
+        <v>1237</v>
       </c>
       <c r="J4">
-        <v>59.062954122999997</v>
+        <v>0.83249990299999799</v>
       </c>
       <c r="K4">
+        <v>0.78734622144112398</v>
+      </c>
+      <c r="L4">
+        <v>0.54863449726517599</v>
+      </c>
+      <c r="M4">
+        <v>1.85874439461883</v>
+      </c>
+      <c r="N4">
+        <v>3.2192320397413501</v>
+      </c>
+      <c r="O4">
         <v>873</v>
       </c>
-      <c r="L4">
+      <c r="P4">
         <v>1448</v>
       </c>
-      <c r="M4">
-        <v>2.7318449000006201E-2</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="0"/>
-        <v>834</v>
-      </c>
-      <c r="O4" cm="1">
-        <f t="array" ref="O4">INDEX(CHOOSE({1,2,3},C4,F4,I4), MATCH(N4, CHOOSE({1,2,3},B4,E4,H4), 0))</f>
-        <v>1456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q4">
+        <v>2.6656707999997298E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C5">
-        <v>609</v>
+        <v>587</v>
       </c>
       <c r="D5">
-        <v>3.4011026389999999</v>
+        <v>0.16810071100000101</v>
       </c>
       <c r="E5">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="F5">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="G5">
-        <v>1.67628365999999</v>
+        <v>2.6062671549999901</v>
       </c>
       <c r="H5">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="I5">
-        <v>578</v>
+        <v>514</v>
       </c>
       <c r="J5">
-        <v>19.658581024</v>
+        <v>0.30472286199999798</v>
       </c>
       <c r="K5">
+        <v>0.77647058823529402</v>
+      </c>
+      <c r="L5">
+        <v>0.48611635631816102</v>
+      </c>
+      <c r="M5">
+        <v>1.53299492385786</v>
+      </c>
+      <c r="N5">
+        <v>1.7812268813994201</v>
+      </c>
+      <c r="O5">
         <v>324</v>
       </c>
-      <c r="L5">
+      <c r="P5">
         <v>601</v>
       </c>
-      <c r="M5">
-        <v>9.2324929999847392E-3</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>267</v>
-      </c>
-      <c r="O5" cm="1">
-        <f t="array" ref="O5">INDEX(CHOOSE({1,2,3},C5,F5,I5), MATCH(N5, CHOOSE({1,2,3},B5,E5,H5), 0))</f>
-        <v>495</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q5">
+        <v>1.01780799999957E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>99</v>
       </c>
       <c r="C6">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D6">
-        <v>4.31676210000091E-2</v>
+        <v>4.6355148999999998E-2</v>
       </c>
       <c r="E6">
         <v>111</v>
       </c>
       <c r="F6">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G6">
-        <v>0.16837885499998601</v>
+        <v>0.18361066599999901</v>
       </c>
       <c r="H6">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="I6">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="J6">
-        <v>0.62713608199999205</v>
+        <v>0.139957484999996</v>
       </c>
       <c r="K6">
+        <v>0.78378378378378299</v>
+      </c>
+      <c r="L6">
+        <v>0.52685374836805199</v>
+      </c>
+      <c r="M6">
+        <v>1.42105263157894</v>
+      </c>
+      <c r="N6">
+        <v>1.53265471353274</v>
+      </c>
+      <c r="O6">
         <v>90</v>
       </c>
-      <c r="L6">
+      <c r="P6">
         <v>161</v>
       </c>
-      <c r="M6">
-        <v>5.3145350000249796E-3</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="O6" cm="1">
-        <f t="array" ref="O6">INDEX(CHOOSE({1,2,3},C6,F6,I6), MATCH(N6, CHOOSE({1,2,3},B6,E6,H6), 0))</f>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q6">
+        <v>5.1317690000018904E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B7">
-        <v>2787</v>
+        <v>2934</v>
       </c>
       <c r="C7">
-        <v>4509</v>
+        <v>4550</v>
       </c>
       <c r="D7">
-        <v>1.3432513879999901</v>
+        <v>1.5375527009999901</v>
       </c>
       <c r="E7">
-        <v>2814</v>
+        <v>2853</v>
       </c>
       <c r="F7">
-        <v>3161</v>
+        <v>3536</v>
       </c>
       <c r="G7">
-        <v>47.490635210999898</v>
+        <v>56.171908971000001</v>
       </c>
       <c r="H7">
-        <v>2763</v>
+        <v>2664</v>
       </c>
       <c r="I7">
-        <v>4445</v>
+        <v>3652</v>
       </c>
       <c r="J7">
-        <v>1195.3770085880001</v>
+        <v>5.16858407099999</v>
       </c>
       <c r="K7">
+        <v>0.78888265019651804</v>
+      </c>
+      <c r="L7">
+        <v>0.54788648914034399</v>
+      </c>
+      <c r="M7">
+        <v>2.1525302922309302</v>
+      </c>
+      <c r="N7">
+        <v>5.0767002683561504</v>
+      </c>
+      <c r="O7">
         <v>2730</v>
       </c>
-      <c r="L7">
+      <c r="P7">
         <v>4341</v>
       </c>
-      <c r="M7">
-        <v>0.109994621999931</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="0"/>
-        <v>2763</v>
-      </c>
-      <c r="O7" cm="1">
-        <f t="array" ref="O7">INDEX(CHOOSE({1,2,3},C7,F7,I7), MATCH(N7, CHOOSE({1,2,3},B7,E7,H7), 0))</f>
-        <v>4445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7">
+        <v>8.6942188999998393E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C8">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D8">
-        <v>6.4420162000033004E-2</v>
+        <v>5.8205928000006603E-2</v>
       </c>
       <c r="E8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F8">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="G8">
-        <v>0.15944714000011101</v>
+        <v>0.14755585899999299</v>
       </c>
       <c r="H8">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="I8">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="J8">
-        <v>5.0174162000075698E-2</v>
+        <v>0.14751153499999201</v>
       </c>
       <c r="K8">
+        <v>0.77227722772277196</v>
+      </c>
+      <c r="L8">
+        <v>0.50504755425175596</v>
+      </c>
+      <c r="M8">
+        <v>1.4935064935064899</v>
+      </c>
+      <c r="N8">
+        <v>1.7027355883178299</v>
+      </c>
+      <c r="O8">
         <v>126</v>
       </c>
-      <c r="L8">
+      <c r="P8">
         <v>241</v>
       </c>
-      <c r="M8">
-        <v>4.78111500001432E-3</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="0"/>
-        <v>129</v>
-      </c>
-      <c r="O8" cm="1">
-        <f t="array" ref="O8">INDEX(CHOOSE({1,2,3},C8,F8,I8), MATCH(N8, CHOOSE({1,2,3},B8,E8,H8), 0))</f>
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q8">
+        <v>4.7564980000060998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B9">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C9">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D9">
-        <v>0.17175132199986301</v>
+        <v>0.16344684699998799</v>
       </c>
       <c r="E9">
         <v>336</v>
       </c>
       <c r="F9">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="G9">
-        <v>2.3771641010000599</v>
+        <v>2.0752926470000101</v>
       </c>
       <c r="H9">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="I9">
-        <v>600</v>
+        <v>552</v>
       </c>
       <c r="J9">
-        <v>266.62225831599898</v>
+        <v>0.397503834000005</v>
       </c>
       <c r="K9">
+        <v>0.810276679841897</v>
+      </c>
+      <c r="L9">
+        <v>0.55841843517626399</v>
+      </c>
+      <c r="M9">
+        <v>1.61576354679802</v>
+      </c>
+      <c r="N9">
+        <v>2.6205229770322398</v>
+      </c>
+      <c r="O9">
         <v>408</v>
       </c>
-      <c r="L9">
+      <c r="P9">
         <v>641</v>
       </c>
-      <c r="M9">
-        <v>1.6915630999847001E-2</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>336</v>
-      </c>
-      <c r="O9" cm="1">
-        <f t="array" ref="O9">INDEX(CHOOSE({1,2,3},C9,F9,I9), MATCH(N9, CHOOSE({1,2,3},B9,E9,H9), 0))</f>
-        <v>517</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q9">
+        <v>1.38251719999971E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B10">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C10">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="D10">
-        <v>7.9484171000103701E-2</v>
+        <v>7.4159121999997496E-2</v>
       </c>
       <c r="E10">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F10">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G10">
-        <v>1.63164243699998</v>
+        <v>0.99810527999998999</v>
       </c>
       <c r="H10">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="I10">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="J10">
-        <v>2.8035903640000002</v>
+        <v>0.32339085700000603</v>
       </c>
       <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.67936622048675699</v>
+      </c>
+      <c r="M10">
+        <v>3.37755102040816</v>
+      </c>
+      <c r="N10">
+        <v>9.6695559551535695</v>
+      </c>
+      <c r="O10">
         <v>273</v>
       </c>
-      <c r="L10">
+      <c r="P10">
         <v>314</v>
       </c>
-      <c r="M10">
-        <v>3.3498027999939901E-2</v>
-      </c>
-      <c r="N10">
-        <f t="shared" si="0"/>
-        <v>159</v>
-      </c>
-      <c r="O10" cm="1">
-        <f t="array" ref="O10">INDEX(CHOOSE({1,2,3},C10,F10,I10), MATCH(N10, CHOOSE({1,2,3},B10,E10,H10), 0))</f>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q10">
+        <v>3.0512931000004E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>786</v>
+        <v>858</v>
       </c>
       <c r="C11">
-        <v>1332</v>
+        <v>1387</v>
       </c>
       <c r="D11">
-        <v>0.35174453200011102</v>
+        <v>0.379906880000007</v>
       </c>
       <c r="E11">
-        <v>759</v>
+        <v>858</v>
       </c>
       <c r="F11">
-        <v>997</v>
+        <v>957</v>
       </c>
       <c r="G11">
-        <v>14.560915418999899</v>
+        <v>6.2255895549999796</v>
       </c>
       <c r="H11">
-        <v>750</v>
+        <v>1041</v>
       </c>
       <c r="I11">
-        <v>1302</v>
+        <v>960</v>
       </c>
       <c r="J11">
-        <v>63.718825961999897</v>
+        <v>1.24137770899997</v>
       </c>
       <c r="K11">
+        <v>0.81692913385826704</v>
+      </c>
+      <c r="L11">
+        <v>0.56466562025195499</v>
+      </c>
+      <c r="M11">
+        <v>1.9806295399515701</v>
+      </c>
+      <c r="N11">
+        <v>4.0295052948061398</v>
+      </c>
+      <c r="O11">
         <v>768</v>
       </c>
-      <c r="L11">
+      <c r="P11">
         <v>1285</v>
       </c>
-      <c r="M11">
-        <v>2.8414481000027001E-2</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="0"/>
-        <v>750</v>
-      </c>
-      <c r="O11" cm="1">
-        <f t="array" ref="O11">INDEX(CHOOSE({1,2,3},C11,F11,I11), MATCH(N11, CHOOSE({1,2,3},B11,E11,H11), 0))</f>
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q11">
+        <v>1.9424352000015601E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B12">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C12">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D12">
-        <v>0.122534165000161</v>
+        <v>0.21701607399998499</v>
       </c>
       <c r="E12">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="F12">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G12">
-        <v>1.86440964400003</v>
+        <v>4.3510791150000001</v>
       </c>
       <c r="H12">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="I12">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="J12">
-        <v>12.1826475979999</v>
+        <v>1.28813861700001</v>
       </c>
       <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.63500063500095205</v>
+      </c>
+      <c r="M12">
+        <v>1.5867768595041301</v>
+      </c>
+      <c r="N12">
+        <v>2.95327083411423</v>
+      </c>
+      <c r="O12">
         <v>246</v>
       </c>
-      <c r="L12">
+      <c r="P12">
         <v>366</v>
       </c>
-      <c r="M12">
-        <v>1.2562952000052899E-2</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="O12" cm="1">
-        <f t="array" ref="O12">INDEX(CHOOSE({1,2,3},C12,F12,I12), MATCH(N12, CHOOSE({1,2,3},B12,E12,H12), 0))</f>
-        <v>311</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q12">
+        <v>1.18844859999853E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>66</v>
       </c>
       <c r="C13">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D13">
-        <v>2.8495820999978601E-2</v>
+        <v>3.4892141000000203E-2</v>
       </c>
       <c r="E13">
         <v>69</v>
       </c>
       <c r="F13">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G13">
-        <v>4.7381827000208397E-2</v>
+        <v>0.19987911200001901</v>
       </c>
       <c r="H13">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I13">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="J13">
-        <v>7.2665283000105704E-2</v>
+        <v>5.9642297999999899E-2</v>
       </c>
       <c r="K13">
+        <v>0.80327868852458995</v>
+      </c>
+      <c r="L13">
+        <v>0.47285918366740798</v>
+      </c>
+      <c r="M13">
+        <v>1.2708333333333299</v>
+      </c>
+      <c r="N13">
+        <v>1.30287475947954</v>
+      </c>
+      <c r="O13">
         <v>75</v>
       </c>
-      <c r="L13">
+      <c r="P13">
         <v>139</v>
       </c>
-      <c r="M13">
-        <v>4.0963189999274601E-3</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="O13" cm="1">
-        <f t="array" ref="O13">INDEX(CHOOSE({1,2,3},C13,F13,I13), MATCH(N13, CHOOSE({1,2,3},B13,E13,H13), 0))</f>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q13">
+        <v>4.0434219999951797E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>108</v>
       </c>
       <c r="C14">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="D14">
-        <v>4.6073360000036701E-2</v>
+        <v>5.2729997000000098E-2</v>
       </c>
       <c r="E14">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="F14">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="G14">
-        <v>1.1766021190000999</v>
+        <v>8.29152489999955E-2</v>
       </c>
       <c r="H14">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I14">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J14">
-        <v>0.31568362699999802</v>
+        <v>7.4760316000009597E-2</v>
       </c>
       <c r="K14">
+        <v>0.792682926829268</v>
+      </c>
+      <c r="L14">
+        <v>0.51175939654529901</v>
+      </c>
+      <c r="M14">
+        <v>1.296875</v>
+      </c>
+      <c r="N14">
+        <v>1.2708226604743</v>
+      </c>
+      <c r="O14">
         <v>120</v>
       </c>
-      <c r="L14">
+      <c r="P14">
         <v>194</v>
       </c>
-      <c r="M14">
-        <v>5.1777700000457099E-3</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="O14" cm="1">
-        <f t="array" ref="O14">INDEX(CHOOSE({1,2,3},C14,F14,I14), MATCH(N14, CHOOSE({1,2,3},B14,E14,H14), 0))</f>
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q14">
+        <v>5.8021010000004402E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B15">
+        <v>84</v>
+      </c>
+      <c r="C15">
+        <v>162</v>
+      </c>
+      <c r="D15">
+        <v>3.5620047999998398E-2</v>
+      </c>
+      <c r="E15">
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <v>125</v>
+      </c>
+      <c r="G15">
+        <v>0.31067643999998001</v>
+      </c>
+      <c r="H15">
         <v>78</v>
       </c>
-      <c r="C15">
-        <v>157</v>
-      </c>
-      <c r="D15">
-        <v>3.2287877000044297E-2</v>
-      </c>
-      <c r="E15">
-        <v>78</v>
-      </c>
-      <c r="F15">
+      <c r="I15">
         <v>135</v>
       </c>
-      <c r="G15">
-        <v>5.0887180000017899E-2</v>
-      </c>
-      <c r="H15">
-        <v>72</v>
-      </c>
-      <c r="I15">
-        <v>149</v>
-      </c>
       <c r="J15">
-        <v>8.2583193999880594E-2</v>
+        <v>5.6394485999987802E-2</v>
       </c>
       <c r="K15">
+        <v>0.81538461538461504</v>
+      </c>
+      <c r="L15">
+        <v>0.46051167837217699</v>
+      </c>
+      <c r="M15">
+        <v>1.25</v>
+      </c>
+      <c r="N15">
+        <v>1.2538402548233101</v>
+      </c>
+      <c r="O15">
         <v>84</v>
       </c>
-      <c r="L15">
+      <c r="P15">
         <v>148</v>
       </c>
-      <c r="M15">
-        <v>4.3554019998737203E-3</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="O15" cm="1">
-        <f t="array" ref="O15">INDEX(CHOOSE({1,2,3},C15,F15,I15), MATCH(N15, CHOOSE({1,2,3},B15,E15,H15), 0))</f>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q15">
+        <v>4.3072750000021599E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B16">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="C16">
-        <v>605</v>
+        <v>513</v>
       </c>
       <c r="D16">
-        <v>0.31542569900011502</v>
+        <v>0.14720512099998401</v>
       </c>
       <c r="E16">
-        <v>318</v>
+        <v>246</v>
       </c>
       <c r="F16">
-        <v>421</v>
+        <v>458</v>
       </c>
       <c r="G16">
-        <v>0.27529355299998298</v>
+        <v>1.93057324600002</v>
       </c>
       <c r="H16">
-        <v>333</v>
+        <v>270</v>
       </c>
       <c r="I16">
-        <v>576</v>
+        <v>492</v>
       </c>
       <c r="J16">
-        <v>5.5620843409999399</v>
+        <v>0.252516730000024</v>
       </c>
       <c r="K16">
+        <v>0.77433628318584002</v>
+      </c>
+      <c r="L16">
+        <v>0.50436655462757696</v>
+      </c>
+      <c r="M16">
+        <v>1.5919540229885001</v>
+      </c>
+      <c r="N16">
+        <v>2.7291832128643101</v>
+      </c>
+      <c r="O16">
         <v>321</v>
       </c>
-      <c r="L16">
+      <c r="P16">
         <v>554</v>
       </c>
-      <c r="M16">
-        <v>1.1558674000070801E-2</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="0"/>
-        <v>318</v>
-      </c>
-      <c r="O16" cm="1">
-        <f t="array" ref="O16">INDEX(CHOOSE({1,2,3},C16,F16,I16), MATCH(N16, CHOOSE({1,2,3},B16,E16,H16), 0))</f>
-        <v>421</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q16">
+        <v>1.2223239999997301E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B17">
-        <v>3087</v>
+        <v>2964</v>
       </c>
       <c r="C17">
-        <v>4680</v>
+        <v>4651</v>
       </c>
       <c r="D17">
-        <v>1.47057098100003</v>
+        <v>1.5526423819999799</v>
       </c>
       <c r="E17">
-        <v>2904</v>
+        <v>2865</v>
       </c>
       <c r="F17">
-        <v>3781</v>
+        <v>3614</v>
       </c>
       <c r="G17">
-        <v>51.556931286000001</v>
+        <v>67.226403934999993</v>
       </c>
       <c r="H17">
-        <v>3051</v>
+        <v>3042</v>
       </c>
       <c r="I17">
-        <v>4698</v>
+        <v>3680</v>
       </c>
       <c r="J17">
-        <v>2034.4114496310001</v>
+        <v>6.86620442699998</v>
       </c>
       <c r="K17">
+        <v>0.81457313757476801</v>
+      </c>
+      <c r="L17">
+        <v>0.57108572170002003</v>
+      </c>
+      <c r="M17">
+        <v>2.0561872909698899</v>
+      </c>
+      <c r="N17">
+        <v>4.8624752678865502</v>
+      </c>
+      <c r="O17">
         <v>2937</v>
       </c>
-      <c r="L17">
+      <c r="P17">
         <v>4477</v>
       </c>
-      <c r="M17">
-        <v>0.23720779699988201</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="0"/>
-        <v>2904</v>
-      </c>
-      <c r="O17" cm="1">
-        <f t="array" ref="O17">INDEX(CHOOSE({1,2,3},C17,F17,I17), MATCH(N17, CHOOSE({1,2,3},B17,E17,H17), 0))</f>
-        <v>3781</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q17">
+        <v>9.3900730000001403E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>105</v>
@@ -2061,7 +2115,7 @@
         <v>200</v>
       </c>
       <c r="D18">
-        <v>5.20797260001018E-2</v>
+        <v>4.3920320000012197E-2</v>
       </c>
       <c r="E18">
         <v>99</v>
@@ -2070,96 +2124,104 @@
         <v>167</v>
       </c>
       <c r="G18">
-        <v>7.8332776000024695E-2</v>
+        <v>6.7700377999983602E-2</v>
       </c>
       <c r="H18">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="I18">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="J18">
-        <v>5.4871032000391999E-2</v>
+        <v>6.5553214999994197E-2</v>
       </c>
       <c r="K18">
+        <v>0.77631578947368396</v>
+      </c>
+      <c r="L18">
+        <v>0.47569019690855802</v>
+      </c>
+      <c r="M18">
+        <v>1.2068965517241299</v>
+      </c>
+      <c r="N18">
+        <v>1.0947936459577601</v>
+      </c>
+      <c r="O18">
         <v>111</v>
       </c>
-      <c r="L18">
+      <c r="P18">
         <v>181</v>
       </c>
-      <c r="M18">
-        <v>5.4647910001222001E-3</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="O18" cm="1">
-        <f t="array" ref="O18">INDEX(CHOOSE({1,2,3},C18,F18,I18), MATCH(N18, CHOOSE({1,2,3},B18,E18,H18), 0))</f>
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q18">
+        <v>5.1988499999993101E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B19">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="C19">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D19">
-        <v>0.11303910700007599</v>
+        <v>0.107391277000004</v>
       </c>
       <c r="E19">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F19">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G19">
-        <v>0.33648954099999101</v>
+        <v>0.40466137399999902</v>
       </c>
       <c r="H19">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="I19">
-        <v>402</v>
+        <v>359</v>
       </c>
       <c r="J19">
-        <v>8.8585947530000304</v>
+        <v>0.325120929000007</v>
       </c>
       <c r="K19">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="L19">
+        <v>0.52115730664704696</v>
+      </c>
+      <c r="M19">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="N19">
+        <v>1.4685176199147201</v>
+      </c>
+      <c r="O19">
         <v>252</v>
       </c>
-      <c r="L19">
+      <c r="P19">
         <v>407</v>
       </c>
-      <c r="M19">
-        <v>1.1001306999787601E-2</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="0"/>
-        <v>222</v>
-      </c>
-      <c r="O19" cm="1">
-        <f t="array" ref="O19">INDEX(CHOOSE({1,2,3},C19,F19,I19), MATCH(N19, CHOOSE({1,2,3},B19,E19,H19), 0))</f>
-        <v>402</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q19">
+        <v>9.7398979999922999E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B20">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C20">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="D20">
-        <v>0.203936316000181</v>
+        <v>0.19145673299999499</v>
       </c>
       <c r="E20">
         <v>396</v>
@@ -2168,341 +2230,369 @@
         <v>548</v>
       </c>
       <c r="G20">
-        <v>0.330217492999963</v>
+        <v>0.52293170699999703</v>
       </c>
       <c r="H20">
-        <v>432</v>
+        <v>396</v>
       </c>
       <c r="I20">
-        <v>761</v>
+        <v>547</v>
       </c>
       <c r="J20">
-        <v>367.20995507699899</v>
+        <v>0.41097966600000202</v>
       </c>
       <c r="K20">
+        <v>0.78245614035087696</v>
+      </c>
+      <c r="L20">
+        <v>0.49740477604685901</v>
+      </c>
+      <c r="M20">
+        <v>1.4774774774774699</v>
+      </c>
+      <c r="N20">
+        <v>1.8446262193551199</v>
+      </c>
+      <c r="O20">
         <v>390</v>
       </c>
-      <c r="L20">
+      <c r="P20">
         <v>690</v>
       </c>
-      <c r="M20">
-        <v>3.7140471000384402E-2</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="0"/>
-        <v>396</v>
-      </c>
-      <c r="O20" cm="1">
-        <f t="array" ref="O20">INDEX(CHOOSE({1,2,3},C20,F20,I20), MATCH(N20, CHOOSE({1,2,3},B20,E20,H20), 0))</f>
-        <v>548</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q20">
+        <v>1.2239481999984E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B21">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C21">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D21">
-        <v>3.3300292000603797E-2</v>
+        <v>2.92516219999754E-2</v>
       </c>
       <c r="E21">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F21">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G21">
-        <v>5.9380034999776399E-2</v>
+        <v>8.1212437000004897E-2</v>
       </c>
       <c r="H21">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I21">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="J21">
-        <v>2.92429199998878E-2</v>
+        <v>5.1975212000002102E-2</v>
       </c>
       <c r="K21">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="L21">
+        <v>0.46702488680792897</v>
+      </c>
+      <c r="M21">
+        <v>1.2888888888888801</v>
+      </c>
+      <c r="N21">
+        <v>1.2404698432846899</v>
+      </c>
+      <c r="O21">
         <v>78</v>
       </c>
-      <c r="L21">
+      <c r="P21">
         <v>132</v>
       </c>
-      <c r="M21">
-        <v>4.2460659997232099E-3</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="O21" cm="1">
-        <f t="array" ref="O21">INDEX(CHOOSE({1,2,3},C21,F21,I21), MATCH(N21, CHOOSE({1,2,3},B21,E21,H21), 0))</f>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q21">
+        <v>4.1375090000030897E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B22">
-        <v>372</v>
+        <v>429</v>
       </c>
       <c r="C22">
-        <v>656</v>
+        <v>711</v>
       </c>
       <c r="D22">
-        <v>0.24915225499989899</v>
+        <v>0.178867459000002</v>
       </c>
       <c r="E22">
+        <v>429</v>
+      </c>
+      <c r="F22">
+        <v>526</v>
+      </c>
+      <c r="G22">
+        <v>0.44017439999998897</v>
+      </c>
+      <c r="H22">
+        <v>429</v>
+      </c>
+      <c r="I22">
+        <v>526</v>
+      </c>
+      <c r="J22">
+        <v>0.53354559699999904</v>
+      </c>
+      <c r="K22">
+        <v>0.76628352490421403</v>
+      </c>
+      <c r="L22">
+        <v>0.53513809231933396</v>
+      </c>
+      <c r="M22">
+        <v>1.8282828282828201</v>
+      </c>
+      <c r="N22">
+        <v>3.0962355900510898</v>
+      </c>
+      <c r="O22">
         <v>378</v>
       </c>
-      <c r="F22">
-        <v>543</v>
-      </c>
-      <c r="G22">
-        <v>0.49839410399999901</v>
-      </c>
-      <c r="H22">
-        <v>351</v>
-      </c>
-      <c r="I22">
-        <v>622</v>
-      </c>
-      <c r="J22">
-        <v>15.204092811000001</v>
-      </c>
-      <c r="K22">
-        <v>378</v>
-      </c>
-      <c r="L22">
+      <c r="P22">
         <v>632</v>
       </c>
-      <c r="M22">
-        <v>1.5011323000180699E-2</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="0"/>
-        <v>351</v>
-      </c>
-      <c r="O22" cm="1">
-        <f t="array" ref="O22">INDEX(CHOOSE({1,2,3},C22,F22,I22), MATCH(N22, CHOOSE({1,2,3},B22,E22,H22), 0))</f>
-        <v>622</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q22">
+        <v>1.25355890000093E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B23">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C23">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="D23">
-        <v>6.4446321000104903E-2</v>
+        <v>6.9376101999978304E-2</v>
       </c>
       <c r="E23">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F23">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="G23">
-        <v>2.5399776309996001</v>
+        <v>3.46644531599997</v>
       </c>
       <c r="H23">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="I23">
         <v>161</v>
       </c>
       <c r="J23">
-        <v>3.4661169049995801</v>
+        <v>0.58677705299999094</v>
       </c>
       <c r="K23">
+        <v>1.1159420289855</v>
+      </c>
+      <c r="L23">
+        <v>0.77152647270760299</v>
+      </c>
+      <c r="M23">
+        <v>1.1315789473684199</v>
+      </c>
+      <c r="N23">
+        <v>1.0303564184448299</v>
+      </c>
+      <c r="O23">
         <v>135</v>
       </c>
-      <c r="L23">
+      <c r="P23">
         <v>162</v>
       </c>
-      <c r="M23">
-        <v>5.0594949998412596E-3</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="O23" cm="1">
-        <f t="array" ref="O23">INDEX(CHOOSE({1,2,3},C23,F23,I23), MATCH(N23, CHOOSE({1,2,3},B23,E23,H23), 0))</f>
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q23">
+        <v>5.1574660000142103E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B24">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C24">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D24">
-        <v>5.0185950999548298E-2</v>
+        <v>5.3097321999985E-2</v>
       </c>
       <c r="E24">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F24">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="G24">
-        <v>0.123637748999499</v>
+        <v>0.13977637700003201</v>
       </c>
       <c r="H24">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="I24">
-        <v>234</v>
+        <v>205</v>
       </c>
       <c r="J24">
-        <v>0.18122964399935801</v>
+        <v>0.140216713999961</v>
       </c>
       <c r="K24">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="L24">
+        <v>0.50703929520393898</v>
+      </c>
+      <c r="M24">
+        <v>1.4507042253521101</v>
+      </c>
+      <c r="N24">
+        <v>2.0195434736828002</v>
+      </c>
+      <c r="O24">
         <v>108</v>
       </c>
-      <c r="L24">
+      <c r="P24">
         <v>212</v>
       </c>
-      <c r="M24">
-        <v>3.9113799994083803E-3</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="O24" cm="1">
-        <f t="array" ref="O24">INDEX(CHOOSE({1,2,3},C24,F24,I24), MATCH(N24, CHOOSE({1,2,3},B24,E24,H24), 0))</f>
-        <v>234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q24">
+        <v>4.6844459999988404E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B25">
-        <v>2601</v>
+        <v>2679</v>
       </c>
       <c r="C25">
-        <v>4166</v>
+        <v>4241</v>
       </c>
       <c r="D25">
-        <v>1.1675411670003</v>
+        <v>1.385880923</v>
       </c>
       <c r="E25">
-        <v>2535</v>
+        <v>2616</v>
       </c>
       <c r="F25">
-        <v>3570</v>
+        <v>3461</v>
       </c>
       <c r="G25">
-        <v>64.892219045000203</v>
+        <v>56.731227443000002</v>
       </c>
       <c r="H25">
-        <v>2580</v>
+        <v>2715</v>
       </c>
       <c r="I25">
-        <v>4184</v>
+        <v>3306</v>
       </c>
       <c r="J25">
-        <v>1149.9056177279999</v>
+        <v>6.2852450600000198</v>
       </c>
       <c r="K25">
+        <v>0.81690997566909895</v>
+      </c>
+      <c r="L25">
+        <v>0.57729226926955601</v>
+      </c>
+      <c r="M25">
+        <v>2.0238627889634602</v>
+      </c>
+      <c r="N25">
+        <v>4.30763645576243</v>
+      </c>
+      <c r="O25">
         <v>2427</v>
       </c>
-      <c r="L25">
+      <c r="P25">
         <v>4070</v>
       </c>
-      <c r="M25">
-        <v>0.13241725300031201</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="0"/>
-        <v>2535</v>
-      </c>
-      <c r="O25" cm="1">
-        <f t="array" ref="O25">INDEX(CHOOSE({1,2,3},C25,F25,I25), MATCH(N25, CHOOSE({1,2,3},B25,E25,H25), 0))</f>
-        <v>3570</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q25">
+        <v>8.0315665999989905E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B26">
-        <v>519</v>
+        <v>498</v>
       </c>
       <c r="C26">
-        <v>842</v>
+        <v>925</v>
       </c>
       <c r="D26">
-        <v>0.24321458400026999</v>
+        <v>0.240760384999987</v>
       </c>
       <c r="E26">
-        <v>552</v>
+        <v>474</v>
       </c>
       <c r="F26">
-        <v>654</v>
+        <v>774</v>
       </c>
       <c r="G26">
-        <v>3.73528669400002</v>
+        <v>5.3966780819999904</v>
       </c>
       <c r="H26">
-        <v>513</v>
+        <v>471</v>
       </c>
       <c r="I26">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="J26">
-        <v>289.73998877399998</v>
+        <v>0.92175185299998896</v>
       </c>
       <c r="K26">
+        <v>0.83976261127596397</v>
+      </c>
+      <c r="L26">
+        <v>0.56439137936943495</v>
+      </c>
+      <c r="M26">
+        <v>1.7224199288256199</v>
+      </c>
+      <c r="N26">
+        <v>3.20606007276966</v>
+      </c>
+      <c r="O26">
         <v>531</v>
       </c>
-      <c r="L26">
+      <c r="P26">
         <v>841</v>
       </c>
-      <c r="M26">
-        <v>1.6761625999606601E-2</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="0"/>
-        <v>513</v>
-      </c>
-      <c r="O26" cm="1">
-        <f t="array" ref="O26">INDEX(CHOOSE({1,2,3},C26,F26,I26), MATCH(N26, CHOOSE({1,2,3},B26,E26,H26), 0))</f>
-        <v>797</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q26">
+        <v>1.6686580999987599E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>117</v>
       </c>
       <c r="C27">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D27">
-        <v>4.8987764000230499E-2</v>
+        <v>5.0451932000043997E-2</v>
       </c>
       <c r="E27">
         <v>99</v>
@@ -2511,47 +2601,51 @@
         <v>188</v>
       </c>
       <c r="G27">
-        <v>6.6095633000259099E-2</v>
+        <v>7.0344969000018395E-2</v>
       </c>
       <c r="H27">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="I27">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="J27">
-        <v>0.315822579000268</v>
+        <v>6.6968169999995497E-2</v>
       </c>
       <c r="K27">
+        <v>0.80232558139534804</v>
+      </c>
+      <c r="L27">
+        <v>0.47787726948917397</v>
+      </c>
+      <c r="M27">
+        <v>1.1764705882352899</v>
+      </c>
+      <c r="N27">
+        <v>0.93841506667904795</v>
+      </c>
+      <c r="O27">
         <v>99</v>
       </c>
-      <c r="L27">
+      <c r="P27">
         <v>189</v>
       </c>
-      <c r="M27">
-        <v>3.9398559993060103E-3</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="O27" cm="1">
-        <f t="array" ref="O27">INDEX(CHOOSE({1,2,3},C27,F27,I27), MATCH(N27, CHOOSE({1,2,3},B27,E27,H27), 0))</f>
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q27">
+        <v>4.0917939999758303E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <v>66</v>
       </c>
       <c r="C28">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D28">
-        <v>2.66015650004192E-2</v>
+        <v>2.9786663999971E-2</v>
       </c>
       <c r="E28">
         <v>66</v>
@@ -2560,243 +2654,263 @@
         <v>108</v>
       </c>
       <c r="G28">
-        <v>4.5574216000204601E-2</v>
+        <v>4.3588960000022298E-2</v>
       </c>
       <c r="H28">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I28">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="J28">
-        <v>6.8087676999311897E-2</v>
+        <v>4.4970316999979297E-2</v>
       </c>
       <c r="K28">
+        <v>0.77551020408163196</v>
+      </c>
+      <c r="L28">
+        <v>0.46358435475920601</v>
+      </c>
+      <c r="M28">
+        <v>1.3783783783783701</v>
+      </c>
+      <c r="N28">
+        <v>1.476873091061</v>
+      </c>
+      <c r="O28">
         <v>72</v>
       </c>
-      <c r="L28">
+      <c r="P28">
         <v>118</v>
       </c>
-      <c r="M28">
-        <v>3.68632899971999E-3</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="O28" cm="1">
-        <f t="array" ref="O28">INDEX(CHOOSE({1,2,3},C28,F28,I28), MATCH(N28, CHOOSE({1,2,3},B28,E28,H28), 0))</f>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q28">
+        <v>3.6416000000372099E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B29">
+        <v>234</v>
+      </c>
+      <c r="C29">
+        <v>337</v>
+      </c>
+      <c r="D29">
+        <v>0.113898619999986</v>
+      </c>
+      <c r="E29">
         <v>255</v>
       </c>
-      <c r="C29">
-        <v>349</v>
-      </c>
-      <c r="D29">
-        <v>0.114157214999977</v>
-      </c>
-      <c r="E29">
-        <v>276</v>
-      </c>
       <c r="F29">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="G29">
-        <v>7.4981001409996599</v>
+        <v>8.2225151179999898</v>
       </c>
       <c r="H29">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="I29">
-        <v>347</v>
+        <v>305</v>
       </c>
       <c r="J29">
-        <v>11.519631647999599</v>
+        <v>0.67276772200000301</v>
       </c>
       <c r="K29">
+        <v>0.91111111111111098</v>
+      </c>
+      <c r="L29">
+        <v>0.57692244381098501</v>
+      </c>
+      <c r="M29">
+        <v>1.3613445378151201</v>
+      </c>
+      <c r="N29">
+        <v>1.88194023086659</v>
+      </c>
+      <c r="O29">
         <v>243</v>
       </c>
-      <c r="L29">
+      <c r="P29">
         <v>341</v>
       </c>
-      <c r="M29">
-        <v>1.09497080002256E-2</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="0"/>
-        <v>234</v>
-      </c>
-      <c r="O29" cm="1">
-        <f t="array" ref="O29">INDEX(CHOOSE({1,2,3},C29,F29,I29), MATCH(N29, CHOOSE({1,2,3},B29,E29,H29), 0))</f>
-        <v>347</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q29">
+        <v>9.8346389999619498E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B30">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C30">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D30">
-        <v>2.8512335999948801E-2</v>
+        <v>3.1132358999968801E-2</v>
       </c>
       <c r="E30">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F30">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G30">
-        <v>9.2753429999902395E-2</v>
+        <v>0.18215353599998699</v>
       </c>
       <c r="H30">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I30">
         <v>92</v>
       </c>
       <c r="J30">
-        <v>4.8993946999871599E-2</v>
+        <v>9.4646285000010197E-2</v>
       </c>
       <c r="K30">
+        <v>0.8</v>
+      </c>
+      <c r="L30">
+        <v>0.45825756949558399</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
         <v>45</v>
       </c>
-      <c r="L30">
+      <c r="P30">
         <v>79</v>
       </c>
-      <c r="M30">
-        <v>3.0113359998722401E-3</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="O30" cm="1">
-        <f t="array" ref="O30">INDEX(CHOOSE({1,2,3},C30,F30,I30), MATCH(N30, CHOOSE({1,2,3},B30,E30,H30), 0))</f>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q30">
+        <v>3.9293259999908497E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B31">
-        <v>1536</v>
+        <v>1464</v>
       </c>
       <c r="C31">
-        <v>2501</v>
+        <v>2493</v>
       </c>
       <c r="D31">
-        <v>0.79140813399953902</v>
+        <v>0.81844949800000599</v>
       </c>
       <c r="E31">
-        <v>1545</v>
+        <v>1422</v>
       </c>
       <c r="F31">
-        <v>2209</v>
+        <v>2131</v>
       </c>
       <c r="G31">
-        <v>9.0530322080003298</v>
+        <v>9.7069621670000199</v>
       </c>
       <c r="H31">
-        <v>1521</v>
+        <v>1650</v>
       </c>
       <c r="I31">
-        <v>2468</v>
+        <v>2210</v>
       </c>
       <c r="J31">
-        <v>133.26042700799999</v>
+        <v>1.9611052420000299</v>
       </c>
       <c r="K31">
+        <v>0.80250481695568399</v>
+      </c>
+      <c r="L31">
+        <v>0.55045390927746096</v>
+      </c>
+      <c r="M31">
+        <v>1.7115384615384599</v>
+      </c>
+      <c r="N31">
+        <v>3.0905347960254002</v>
+      </c>
+      <c r="O31">
         <v>1590</v>
       </c>
-      <c r="L31">
+      <c r="P31">
         <v>2593</v>
       </c>
-      <c r="M31">
-        <v>4.4738061999851197E-2</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="0"/>
-        <v>1521</v>
-      </c>
-      <c r="O31" cm="1">
-        <f t="array" ref="O31">INDEX(CHOOSE({1,2,3},C31,F31,I31), MATCH(N31, CHOOSE({1,2,3},B31,E31,H31), 0))</f>
-        <v>2468</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q31">
+        <v>4.66571309999608E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B32">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C32">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="D32">
-        <v>0.11474931500015299</v>
+        <v>0.132314268000016</v>
       </c>
       <c r="E32">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F32">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="G32">
-        <v>1.24368930699984</v>
+        <v>0.166731578999986</v>
       </c>
       <c r="H32">
+        <v>246</v>
+      </c>
+      <c r="I32">
+        <v>439</v>
+      </c>
+      <c r="J32">
+        <v>0.16710922599997899</v>
+      </c>
+      <c r="K32">
+        <v>0.78421052631578902</v>
+      </c>
+      <c r="L32">
+        <v>0.47101587624905999</v>
+      </c>
+      <c r="M32">
+        <v>1.40816326530612</v>
+      </c>
+      <c r="N32">
+        <v>1.55075185645003</v>
+      </c>
+      <c r="O32">
         <v>258</v>
       </c>
-      <c r="I32">
-        <v>457</v>
-      </c>
-      <c r="J32">
-        <v>16.012054884999898</v>
-      </c>
-      <c r="K32">
-        <v>258</v>
-      </c>
-      <c r="L32">
+      <c r="P32">
         <v>446</v>
       </c>
-      <c r="M32">
-        <v>7.61867799974425E-3</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="0"/>
-        <v>249</v>
-      </c>
-      <c r="O32" cm="1">
-        <f t="array" ref="O32">INDEX(CHOOSE({1,2,3},C32,F32,I32), MATCH(N32, CHOOSE({1,2,3},B32,E32,H32), 0))</f>
-        <v>433</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q32">
+        <v>8.8136050000002797E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B33">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>88</v>
       </c>
       <c r="D33">
-        <v>2.02368150003167E-2</v>
+        <v>1.88033879999807E-2</v>
       </c>
       <c r="E33">
         <v>48</v>
@@ -2805,831 +2919,899 @@
         <v>90</v>
       </c>
       <c r="G33">
-        <v>3.2503044999430103E-2</v>
+        <v>3.2807177999984498E-2</v>
       </c>
       <c r="H33">
+        <v>48</v>
+      </c>
+      <c r="I33">
+        <v>90</v>
+      </c>
+      <c r="J33">
+        <v>3.53922239999633E-2</v>
+      </c>
+      <c r="K33">
+        <v>0.8</v>
+      </c>
+      <c r="L33">
+        <v>0.45825756949558399</v>
+      </c>
+      <c r="M33">
+        <v>1.2903225806451599</v>
+      </c>
+      <c r="N33">
+        <v>1.0834100402417199</v>
+      </c>
+      <c r="O33">
+        <v>66</v>
+      </c>
+      <c r="P33">
+        <v>104</v>
+      </c>
+      <c r="Q33">
+        <v>5.2781780000259399E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>414</v>
+      </c>
+      <c r="C34">
+        <v>709</v>
+      </c>
+      <c r="D34">
+        <v>0.197872280000012</v>
+      </c>
+      <c r="E34">
+        <v>369</v>
+      </c>
+      <c r="F34">
+        <v>619</v>
+      </c>
+      <c r="G34">
+        <v>3.2498925639999898</v>
+      </c>
+      <c r="H34">
+        <v>399</v>
+      </c>
+      <c r="I34">
+        <v>657</v>
+      </c>
+      <c r="J34">
+        <v>0.55765745600001504</v>
+      </c>
+      <c r="K34">
+        <v>0.79139072847682101</v>
+      </c>
+      <c r="L34">
+        <v>0.51422679014430805</v>
+      </c>
+      <c r="M34">
+        <v>1.49159663865546</v>
+      </c>
+      <c r="N34">
+        <v>2.0797979795208299</v>
+      </c>
+      <c r="O34">
+        <v>375</v>
+      </c>
+      <c r="P34">
+        <v>668</v>
+      </c>
+      <c r="Q34">
+        <v>1.26669050000032E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>94</v>
+      </c>
+      <c r="D35">
+        <v>1.9612914999981901E-2</v>
+      </c>
+      <c r="E35">
         <v>45</v>
       </c>
-      <c r="I33">
+      <c r="F35">
         <v>88</v>
       </c>
-      <c r="J33">
-        <v>2.2022387999640999E-2</v>
-      </c>
-      <c r="K33">
-        <v>66</v>
-      </c>
-      <c r="L33">
-        <v>104</v>
-      </c>
-      <c r="M33">
-        <v>4.2069330002050204E-3</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="O33" cm="1">
-        <f t="array" ref="O33">INDEX(CHOOSE({1,2,3},C33,F33,I33), MATCH(N33, CHOOSE({1,2,3},B33,E33,H33), 0))</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34">
-        <v>417</v>
-      </c>
-      <c r="C34">
-        <v>726</v>
-      </c>
-      <c r="D34">
-        <v>0.182303648000015</v>
-      </c>
-      <c r="E34">
-        <v>351</v>
-      </c>
-      <c r="F34">
-        <v>620</v>
-      </c>
-      <c r="G34">
-        <v>3.1984964830007798</v>
-      </c>
-      <c r="H34">
-        <v>396</v>
-      </c>
-      <c r="I34">
-        <v>746</v>
-      </c>
-      <c r="J34">
-        <v>26.033384872999701</v>
-      </c>
-      <c r="K34">
-        <v>375</v>
-      </c>
-      <c r="L34">
-        <v>668</v>
-      </c>
-      <c r="M34">
-        <v>1.0969097000270199E-2</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="0"/>
-        <v>351</v>
-      </c>
-      <c r="O34" cm="1">
-        <f t="array" ref="O34">INDEX(CHOOSE({1,2,3},C34,F34,I34), MATCH(N34, CHOOSE({1,2,3},B34,E34,H34), 0))</f>
-        <v>620</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35">
-        <v>45</v>
-      </c>
-      <c r="C35">
-        <v>91</v>
-      </c>
-      <c r="D35">
-        <v>1.9213143000342801E-2</v>
-      </c>
-      <c r="E35">
-        <v>42</v>
-      </c>
-      <c r="F35">
-        <v>79</v>
-      </c>
       <c r="G35">
-        <v>0.116794609999487</v>
+        <v>3.2222810999996902E-2</v>
       </c>
       <c r="H35">
         <v>45</v>
       </c>
       <c r="I35">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J35">
-        <v>4.9589821999688803E-2</v>
+        <v>3.1131041000037302E-2</v>
       </c>
       <c r="K35">
+        <v>0.8</v>
+      </c>
+      <c r="L35">
+        <v>0.45825756949558399</v>
+      </c>
+      <c r="M35">
+        <v>1.32258064516129</v>
+      </c>
+      <c r="N35">
+        <v>1.42301580645888</v>
+      </c>
+      <c r="O35">
         <v>45</v>
       </c>
-      <c r="L35">
+      <c r="P35">
         <v>87</v>
       </c>
-      <c r="M35">
-        <v>2.5519709997752198E-3</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="O35" cm="1">
-        <f t="array" ref="O35">INDEX(CHOOSE({1,2,3},C35,F35,I35), MATCH(N35, CHOOSE({1,2,3},B35,E35,H35), 0))</f>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q35">
+        <v>2.45401100005437E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B36">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="C36">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="D36">
-        <v>0.15813921799963199</v>
+        <v>0.16640847899998301</v>
       </c>
       <c r="E36">
-        <v>396</v>
+        <v>357</v>
       </c>
       <c r="F36">
-        <v>547</v>
+        <v>491</v>
       </c>
       <c r="G36">
-        <v>0.27726425000037103</v>
+        <v>0.87084562600000404</v>
       </c>
       <c r="H36">
+        <v>366</v>
+      </c>
+      <c r="I36">
+        <v>517</v>
+      </c>
+      <c r="J36">
+        <v>0.33606756900002199</v>
+      </c>
+      <c r="K36">
+        <v>0.78087649402390402</v>
+      </c>
+      <c r="L36">
+        <v>0.49276925889831802</v>
+      </c>
+      <c r="M36">
+        <v>1.4717948717948699</v>
+      </c>
+      <c r="N36">
+        <v>2.12505791389543</v>
+      </c>
+      <c r="O36">
         <v>375</v>
       </c>
-      <c r="I36">
-        <v>653</v>
-      </c>
-      <c r="J36">
-        <v>7.90871362600046</v>
-      </c>
-      <c r="K36">
-        <v>375</v>
-      </c>
-      <c r="L36">
+      <c r="P36">
         <v>641</v>
       </c>
-      <c r="M36">
-        <v>1.13363770005889E-2</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="O36" cm="1">
-        <f t="array" ref="O36">INDEX(CHOOSE({1,2,3},C36,F36,I36), MATCH(N36, CHOOSE({1,2,3},B36,E36,H36), 0))</f>
-        <v>653</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q36">
+        <v>1.2205835000031501E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B37">
-        <v>582</v>
+        <v>678</v>
       </c>
       <c r="C37">
-        <v>1067</v>
+        <v>1187</v>
       </c>
       <c r="D37">
-        <v>0.32708707999972803</v>
+        <v>0.32798878900001599</v>
       </c>
       <c r="E37">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="F37">
-        <v>905</v>
+        <v>864</v>
       </c>
       <c r="G37">
-        <v>2.54890914399948</v>
+        <v>0.82265022799998599</v>
       </c>
       <c r="H37">
-        <v>579</v>
+        <v>618</v>
       </c>
       <c r="I37">
-        <v>1064</v>
+        <v>863</v>
       </c>
       <c r="J37">
-        <v>11.6419496520002</v>
+        <v>0.44416291999999602</v>
       </c>
       <c r="K37">
+        <v>0.77241379310344804</v>
+      </c>
+      <c r="L37">
+        <v>0.503936151577976</v>
+      </c>
+      <c r="M37">
+        <v>1.57611940298507</v>
+      </c>
+      <c r="N37">
+        <v>2.5414820891801502</v>
+      </c>
+      <c r="O37">
         <v>669</v>
       </c>
-      <c r="L37">
+      <c r="P37">
         <v>1101</v>
       </c>
-      <c r="M37">
-        <v>2.3188281999864498E-2</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="0"/>
-        <v>579</v>
-      </c>
-      <c r="O37" cm="1">
-        <f t="array" ref="O37">INDEX(CHOOSE({1,2,3},C37,F37,I37), MATCH(N37, CHOOSE({1,2,3},B37,E37,H37), 0))</f>
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q37">
+        <v>2.2852069999998999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B38">
         <v>1494</v>
       </c>
       <c r="C38">
-        <v>2381</v>
+        <v>2434</v>
       </c>
       <c r="D38">
-        <v>0.76062613699923498</v>
+        <v>0.67199687999999402</v>
       </c>
       <c r="E38">
-        <v>1368</v>
+        <v>1476</v>
       </c>
       <c r="F38">
-        <v>1943</v>
+        <v>1833</v>
       </c>
       <c r="G38">
-        <v>19.368692462000499</v>
+        <v>17.790291613000001</v>
       </c>
       <c r="H38">
-        <v>1413</v>
+        <v>1539</v>
       </c>
       <c r="I38">
-        <v>2319</v>
+        <v>1982</v>
       </c>
       <c r="J38">
-        <v>160.029036244</v>
+        <v>2.3093329629999699</v>
       </c>
       <c r="K38">
+        <v>0.82021276595744597</v>
+      </c>
+      <c r="L38">
+        <v>0.569262267499552</v>
+      </c>
+      <c r="M38">
+        <v>1.7103896103896099</v>
+      </c>
+      <c r="N38">
+        <v>3.0816627496773799</v>
+      </c>
+      <c r="O38">
         <v>1443</v>
       </c>
-      <c r="L38">
+      <c r="P38">
         <v>2331</v>
       </c>
-      <c r="M38">
-        <v>3.9864858999862897E-2</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="0"/>
-        <v>1368</v>
-      </c>
-      <c r="O38" cm="1">
-        <f t="array" ref="O38">INDEX(CHOOSE({1,2,3},C38,F38,I38), MATCH(N38, CHOOSE({1,2,3},B38,E38,H38), 0))</f>
-        <v>1943</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q38">
+        <v>4.1374735000033497E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B39">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="C39">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="D39">
-        <v>7.46514770007706E-2</v>
+        <v>0.20931437600000799</v>
       </c>
       <c r="E39">
+        <v>180</v>
+      </c>
+      <c r="F39">
+        <v>258</v>
+      </c>
+      <c r="G39">
+        <v>0.11225529300003199</v>
+      </c>
+      <c r="H39">
+        <v>180</v>
+      </c>
+      <c r="I39">
+        <v>258</v>
+      </c>
+      <c r="J39">
+        <v>0.11055853699997401</v>
+      </c>
+      <c r="K39">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="L39">
+        <v>0.50441834802323005</v>
+      </c>
+      <c r="M39">
+        <v>1.53061224489795</v>
+      </c>
+      <c r="N39">
+        <v>2.21867804744568</v>
+      </c>
+      <c r="O39">
+        <v>189</v>
+      </c>
+      <c r="P39">
+        <v>310</v>
+      </c>
+      <c r="Q39">
+        <v>7.8722900000229804E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <v>1533</v>
+      </c>
+      <c r="C40">
+        <v>2555</v>
+      </c>
+      <c r="D40">
+        <v>0.79246916299996395</v>
+      </c>
+      <c r="E40">
+        <v>1479</v>
+      </c>
+      <c r="F40">
+        <v>1852</v>
+      </c>
+      <c r="G40">
+        <v>15.958336489999899</v>
+      </c>
+      <c r="H40">
+        <v>1503</v>
+      </c>
+      <c r="I40">
+        <v>1805</v>
+      </c>
+      <c r="J40">
+        <v>1.7877452629999699</v>
+      </c>
+      <c r="K40">
+        <v>0.82021276595744597</v>
+      </c>
+      <c r="L40">
+        <v>0.569262267499552</v>
+      </c>
+      <c r="M40">
+        <v>1.7103896103896099</v>
+      </c>
+      <c r="N40">
+        <v>3.0816627496773799</v>
+      </c>
+      <c r="O40">
+        <v>1443</v>
+      </c>
+      <c r="P40">
+        <v>2331</v>
+      </c>
+      <c r="Q40">
+        <v>4.3407311000009899E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>195</v>
+      </c>
+      <c r="C41">
+        <v>357</v>
+      </c>
+      <c r="D41">
+        <v>9.4633645999977006E-2</v>
+      </c>
+      <c r="E41">
         <v>162</v>
       </c>
-      <c r="F39">
-        <v>257</v>
-      </c>
-      <c r="G39">
-        <v>0.45633674700002302</v>
-      </c>
-      <c r="H39">
-        <v>150</v>
-      </c>
-      <c r="I39">
-        <v>287</v>
-      </c>
-      <c r="J39">
-        <v>5.7313315239998701</v>
-      </c>
-      <c r="K39">
-        <v>189</v>
-      </c>
-      <c r="L39">
-        <v>310</v>
-      </c>
-      <c r="M39">
-        <v>7.50354900083038E-3</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="O39" cm="1">
-        <f t="array" ref="O39">INDEX(CHOOSE({1,2,3},C39,F39,I39), MATCH(N39, CHOOSE({1,2,3},B39,E39,H39), 0))</f>
-        <v>287</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40">
-        <v>1446</v>
-      </c>
-      <c r="C40">
-        <v>2367</v>
-      </c>
-      <c r="D40">
-        <v>0.66113635100009505</v>
-      </c>
-      <c r="E40">
-        <v>1257</v>
-      </c>
-      <c r="F40">
-        <v>1947</v>
-      </c>
-      <c r="G40">
-        <v>13.278222029</v>
-      </c>
-      <c r="H40">
-        <v>1404</v>
-      </c>
-      <c r="I40">
-        <v>2266</v>
-      </c>
-      <c r="J40">
-        <v>96.434254699000107</v>
-      </c>
-      <c r="K40">
-        <v>1443</v>
-      </c>
-      <c r="L40">
-        <v>2331</v>
-      </c>
-      <c r="M40">
-        <v>4.1971434999140897E-2</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="0"/>
-        <v>1257</v>
-      </c>
-      <c r="O40" cm="1">
-        <f t="array" ref="O40">INDEX(CHOOSE({1,2,3},C40,F40,I40), MATCH(N40, CHOOSE({1,2,3},B40,E40,H40), 0))</f>
-        <v>1947</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41">
-        <v>180</v>
-      </c>
-      <c r="C41">
-        <v>318</v>
-      </c>
-      <c r="D41">
-        <v>8.0039532000227995E-2</v>
-      </c>
-      <c r="E41">
-        <v>138</v>
-      </c>
       <c r="F41">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="G41">
-        <v>0.77556014499987203</v>
+        <v>0.53108629899998006</v>
       </c>
       <c r="H41">
         <v>168</v>
       </c>
       <c r="I41">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="J41">
-        <v>6.5137114079998302</v>
+        <v>0.133785161999981</v>
       </c>
       <c r="K41">
+        <v>0.77697841726618699</v>
+      </c>
+      <c r="L41">
+        <v>0.50952320027700004</v>
+      </c>
+      <c r="M41">
+        <v>1.33644859813084</v>
+      </c>
+      <c r="N41">
+        <v>1.3803962944027399</v>
+      </c>
+      <c r="O41">
         <v>186</v>
       </c>
-      <c r="L41">
+      <c r="P41">
         <v>332</v>
       </c>
-      <c r="M41">
-        <v>6.6775739996955902E-3</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="O41" cm="1">
-        <f t="array" ref="O41">INDEX(CHOOSE({1,2,3},C41,F41,I41), MATCH(N41, CHOOSE({1,2,3},B41,E41,H41), 0))</f>
-        <v>272</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q41">
+        <v>7.5300010000205397E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B42">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C42">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D42">
-        <v>2.7802742000858399E-2</v>
+        <v>2.4726670000006799E-2</v>
       </c>
       <c r="E42">
         <v>60</v>
       </c>
       <c r="F42">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G42">
-        <v>4.2911159999675798E-2</v>
+        <v>4.3734190999998597E-2</v>
       </c>
       <c r="H42">
         <v>60</v>
       </c>
       <c r="I42">
+        <v>103</v>
+      </c>
+      <c r="J42">
+        <v>4.1468205000001E-2</v>
+      </c>
+      <c r="K42">
+        <v>0.76</v>
+      </c>
+      <c r="L42">
+        <v>0.471593044902063</v>
+      </c>
+      <c r="M42">
+        <v>1.35135135135135</v>
+      </c>
+      <c r="N42">
+        <v>1.4743980212957599</v>
+      </c>
+      <c r="O42">
+        <v>57</v>
+      </c>
+      <c r="P42">
+        <v>115</v>
+      </c>
+      <c r="Q42">
+        <v>2.96151100002362E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43">
+        <v>168</v>
+      </c>
+      <c r="C43">
+        <v>290</v>
+      </c>
+      <c r="D43">
+        <v>7.4146769999970205E-2</v>
+      </c>
+      <c r="E43">
+        <v>156</v>
+      </c>
+      <c r="F43">
+        <v>219</v>
+      </c>
+      <c r="G43">
+        <v>0.12245104599998</v>
+      </c>
+      <c r="H43">
+        <v>156</v>
+      </c>
+      <c r="I43">
+        <v>219</v>
+      </c>
+      <c r="J43">
+        <v>0.122231271999964</v>
+      </c>
+      <c r="K43">
+        <v>0.79629629629629595</v>
+      </c>
+      <c r="L43">
+        <v>0.50477826557181504</v>
+      </c>
+      <c r="M43">
+        <v>1.44705882352941</v>
+      </c>
+      <c r="N43">
+        <v>2.02051759444974</v>
+      </c>
+      <c r="O43">
+        <v>150</v>
+      </c>
+      <c r="P43">
+        <v>262</v>
+      </c>
+      <c r="Q43">
+        <v>6.6471979999960197E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44">
+        <v>114</v>
+      </c>
+      <c r="C44">
+        <v>149</v>
+      </c>
+      <c r="D44">
+        <v>5.2743441000018203E-2</v>
+      </c>
+      <c r="E44">
         <v>120</v>
       </c>
-      <c r="J42">
-        <v>7.0486857999639996E-2</v>
-      </c>
-      <c r="K42">
-        <v>57</v>
-      </c>
-      <c r="L42">
-        <v>115</v>
-      </c>
-      <c r="M42">
-        <v>2.9216009997981001E-3</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="0"/>
+      <c r="F44">
+        <v>155</v>
+      </c>
+      <c r="G44">
+        <v>0.85501418099994397</v>
+      </c>
+      <c r="H44">
+        <v>120</v>
+      </c>
+      <c r="I44">
+        <v>155</v>
+      </c>
+      <c r="J44">
+        <v>0.38837202000001902</v>
+      </c>
+      <c r="K44">
+        <v>1.0714285714285701</v>
+      </c>
+      <c r="L44">
+        <v>0.65074525565316399</v>
+      </c>
+      <c r="M44">
+        <v>1.2711864406779601</v>
+      </c>
+      <c r="N44">
+        <v>1.2733315234571401</v>
+      </c>
+      <c r="O44">
+        <v>81</v>
+      </c>
+      <c r="P44">
+        <v>116</v>
+      </c>
+      <c r="Q44">
+        <v>4.0162569999892999E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45">
+        <v>189</v>
+      </c>
+      <c r="C45">
+        <v>332</v>
+      </c>
+      <c r="D45">
+        <v>0.16683635300000699</v>
+      </c>
+      <c r="E45">
+        <v>180</v>
+      </c>
+      <c r="F45">
+        <v>246</v>
+      </c>
+      <c r="G45">
+        <v>1.1276812770000699</v>
+      </c>
+      <c r="H45">
+        <v>183</v>
+      </c>
+      <c r="I45">
+        <v>267</v>
+      </c>
+      <c r="J45">
+        <v>0.18362851599999799</v>
+      </c>
+      <c r="K45">
+        <v>0.79545454545454497</v>
+      </c>
+      <c r="L45">
+        <v>0.50360272286728003</v>
+      </c>
+      <c r="M45">
+        <v>1.4951456310679601</v>
+      </c>
+      <c r="N45">
+        <v>2.1355692559017498</v>
+      </c>
+      <c r="O45">
+        <v>177</v>
+      </c>
+      <c r="P45">
+        <v>312</v>
+      </c>
+      <c r="Q45">
+        <v>7.28375599999253E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>60</v>
       </c>
-      <c r="O42" cm="1">
-        <f t="array" ref="O42">INDEX(CHOOSE({1,2,3},C42,F42,I42), MATCH(N42, CHOOSE({1,2,3},B42,E42,H42), 0))</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43">
-        <v>171</v>
-      </c>
-      <c r="C43">
-        <v>296</v>
-      </c>
-      <c r="D43">
-        <v>7.6168070999301493E-2</v>
-      </c>
-      <c r="E43">
-        <v>138</v>
-      </c>
-      <c r="F43">
-        <v>221</v>
-      </c>
-      <c r="G43">
-        <v>0.43140463199961199</v>
-      </c>
-      <c r="H43">
-        <v>168</v>
-      </c>
-      <c r="I43">
-        <v>292</v>
-      </c>
-      <c r="J43">
-        <v>0.16563901399968001</v>
-      </c>
-      <c r="K43">
-        <v>150</v>
-      </c>
-      <c r="L43">
-        <v>262</v>
-      </c>
-      <c r="M43">
-        <v>6.0805019993495002E-3</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="O43" cm="1">
-        <f t="array" ref="O43">INDEX(CHOOSE({1,2,3},C43,F43,I43), MATCH(N43, CHOOSE({1,2,3},B43,E43,H43), 0))</f>
-        <v>221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44">
-        <v>111</v>
-      </c>
-      <c r="C44">
-        <v>143</v>
-      </c>
-      <c r="D44">
-        <v>5.1671072000317501E-2</v>
-      </c>
-      <c r="E44">
-        <v>105</v>
-      </c>
-      <c r="F44">
-        <v>140</v>
-      </c>
-      <c r="G44">
-        <v>2.12233070199999</v>
-      </c>
-      <c r="H44">
-        <v>111</v>
-      </c>
-      <c r="I44">
-        <v>143</v>
-      </c>
-      <c r="J44">
-        <v>0.24493944599998899</v>
-      </c>
-      <c r="K44">
-        <v>81</v>
-      </c>
-      <c r="L44">
-        <v>116</v>
-      </c>
-      <c r="M44">
-        <v>3.9679190003880597E-3</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="O44" cm="1">
-        <f t="array" ref="O44">INDEX(CHOOSE({1,2,3},C44,F44,I44), MATCH(N44, CHOOSE({1,2,3},B44,E44,H44), 0))</f>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45">
-        <v>165</v>
-      </c>
-      <c r="C45">
-        <v>310</v>
-      </c>
-      <c r="D45">
-        <v>7.2022861999357701E-2</v>
-      </c>
-      <c r="E45">
-        <v>162</v>
-      </c>
-      <c r="F45">
-        <v>282</v>
-      </c>
-      <c r="G45">
-        <v>0.16186009899956799</v>
-      </c>
-      <c r="H45">
-        <v>159</v>
-      </c>
-      <c r="I45">
-        <v>304</v>
-      </c>
-      <c r="J45">
-        <v>1.2450701510006099</v>
-      </c>
-      <c r="K45">
-        <v>177</v>
-      </c>
-      <c r="L45">
-        <v>312</v>
-      </c>
-      <c r="M45">
-        <v>6.4409419992443803E-3</v>
-      </c>
-      <c r="N45">
-        <f t="shared" si="0"/>
-        <v>159</v>
-      </c>
-      <c r="O45" cm="1">
-        <f t="array" ref="O45">INDEX(CHOOSE({1,2,3},C45,F45,I45), MATCH(N45, CHOOSE({1,2,3},B45,E45,H45), 0))</f>
-        <v>304</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>56</v>
-      </c>
       <c r="B46">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C46">
         <v>78</v>
       </c>
       <c r="D46">
-        <v>1.55289570002423E-2</v>
+        <v>1.8826300999990001E-2</v>
       </c>
       <c r="E46">
         <v>36</v>
       </c>
       <c r="F46">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="G46">
-        <v>4.5979391000400903E-2</v>
+        <v>2.72793519999368E-2</v>
       </c>
       <c r="H46">
+        <v>36</v>
+      </c>
+      <c r="I46">
+        <v>71</v>
+      </c>
+      <c r="J46">
+        <v>2.88190879999774E-2</v>
+      </c>
+      <c r="K46">
+        <v>0.8</v>
+      </c>
+      <c r="L46">
+        <v>0.4</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
         <v>39</v>
       </c>
-      <c r="I46">
-        <v>73</v>
-      </c>
-      <c r="J46">
-        <v>2.9906672999459202E-2</v>
-      </c>
-      <c r="K46">
-        <v>39</v>
-      </c>
-      <c r="L46">
+      <c r="P46">
         <v>68</v>
       </c>
-      <c r="M46">
-        <v>2.44988400027068E-3</v>
-      </c>
-      <c r="N46">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="O46" cm="1">
-        <f t="array" ref="O46">INDEX(CHOOSE({1,2,3},C46,F46,I46), MATCH(N46, CHOOSE({1,2,3},B46,E46,H46), 0))</f>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q46">
+        <v>3.0851379999603501E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B47">
+        <v>111</v>
+      </c>
+      <c r="C47">
+        <v>206</v>
+      </c>
+      <c r="D47">
+        <v>5.1236685000048902E-2</v>
+      </c>
+      <c r="E47">
         <v>102</v>
       </c>
-      <c r="C47">
-        <v>204</v>
-      </c>
-      <c r="D47">
-        <v>4.3518399000276903E-2</v>
-      </c>
-      <c r="E47">
-        <v>114</v>
-      </c>
       <c r="F47">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="G47">
-        <v>6.8784057000811999E-2</v>
+        <v>7.4167878000025597E-2</v>
       </c>
       <c r="H47">
         <v>102</v>
       </c>
       <c r="I47">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="J47">
-        <v>0.17544482699941</v>
+        <v>7.2859301999983403E-2</v>
       </c>
       <c r="K47">
+        <v>0.76190476190476097</v>
+      </c>
+      <c r="L47">
+        <v>0.50282647814149695</v>
+      </c>
+      <c r="M47">
+        <v>1.3968253968253901</v>
+      </c>
+      <c r="N47">
+        <v>1.5279375302995399</v>
+      </c>
+      <c r="O47">
         <v>99</v>
       </c>
-      <c r="L47">
+      <c r="P47">
         <v>196</v>
       </c>
-      <c r="M47">
-        <v>3.9712509997116199E-3</v>
-      </c>
-      <c r="N47">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="O47" cm="1">
-        <f t="array" ref="O47">INDEX(CHOOSE({1,2,3},C47,F47,I47), MATCH(N47, CHOOSE({1,2,3},B47,E47,H47), 0))</f>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q47">
+        <v>4.3634310000015804E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B48">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C48">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D48">
-        <v>6.2493835999703103E-2</v>
+        <v>6.6712714999994205E-2</v>
       </c>
       <c r="E48">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F48">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G48">
-        <v>0.13999963399964999</v>
+        <v>8.2219882999993305E-2</v>
       </c>
       <c r="H48">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="I48">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="J48">
-        <v>0.40572345999953502</v>
+        <v>8.4889481000004693E-2</v>
       </c>
       <c r="K48">
+        <v>0.78217821782178198</v>
+      </c>
+      <c r="L48">
+        <v>0.499583200457143</v>
+      </c>
+      <c r="M48">
+        <v>1.5</v>
+      </c>
+      <c r="N48">
+        <v>2.2403639814170302</v>
+      </c>
+      <c r="O48">
         <v>147</v>
       </c>
-      <c r="L48">
+      <c r="P48">
         <v>230</v>
       </c>
-      <c r="M48">
-        <v>5.8851950007010601E-3</v>
-      </c>
-      <c r="N48">
-        <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="O48" cm="1">
-        <f t="array" ref="O48">INDEX(CHOOSE({1,2,3},C48,F48,I48), MATCH(N48, CHOOSE({1,2,3},B48,E48,H48), 0))</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q48">
+        <v>6.5162580000333002E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B49">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C49">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="D49">
-        <v>0.113827799999853</v>
+        <v>0.61057279099998096</v>
       </c>
       <c r="E49">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="F49">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="G49">
-        <v>1.03171220799958</v>
+        <v>1.59658231000003</v>
       </c>
       <c r="H49">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="I49">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="J49">
-        <v>8.9206069709998701</v>
+        <v>0.30603457799998002</v>
       </c>
       <c r="K49">
+        <v>0.78756476683937804</v>
+      </c>
+      <c r="L49">
+        <v>0.51046131447669696</v>
+      </c>
+      <c r="M49">
+        <v>1.56</v>
+      </c>
+      <c r="N49">
+        <v>2.3423065555131699</v>
+      </c>
+      <c r="O49">
         <v>330</v>
       </c>
-      <c r="L49">
+      <c r="P49">
         <v>534</v>
       </c>
-      <c r="M49">
-        <v>1.3842340999872201E-2</v>
-      </c>
-      <c r="N49">
-        <f t="shared" si="0"/>
-        <v>219</v>
-      </c>
-      <c r="O49" cm="1">
-        <f t="array" ref="O49">INDEX(CHOOSE({1,2,3},C49,F49,I49), MATCH(N49, CHOOSE({1,2,3},B49,E49,H49), 0))</f>
-        <v>380</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q49">
+        <v>2.61945540000851E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B50">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C50">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D50">
-        <v>7.8409765999822398E-2</v>
+        <v>8.2497449999891601E-2</v>
       </c>
       <c r="E50">
         <v>165</v>
@@ -3638,87 +3820,95 @@
         <v>293</v>
       </c>
       <c r="G50">
-        <v>0.58437547500034204</v>
+        <v>0.59361710899997799</v>
       </c>
       <c r="H50">
         <v>165</v>
       </c>
       <c r="I50">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="J50">
-        <v>6.7005149999204094E-2</v>
+        <v>0.1794729369999</v>
       </c>
       <c r="K50">
+        <v>0.79850746268656703</v>
+      </c>
+      <c r="L50">
+        <v>0.485304193668331</v>
+      </c>
+      <c r="M50">
+        <v>1.3018867924528299</v>
+      </c>
+      <c r="N50">
+        <v>1.3187316041514301</v>
+      </c>
+      <c r="O50">
         <v>165</v>
       </c>
-      <c r="L50">
+      <c r="P50">
         <v>309</v>
       </c>
-      <c r="M50">
-        <v>6.4187240004685E-3</v>
-      </c>
-      <c r="N50">
-        <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
-      <c r="O50" cm="1">
-        <f t="array" ref="O50">INDEX(CHOOSE({1,2,3},C50,F50,I50), MATCH(N50, CHOOSE({1,2,3},B50,E50,H50), 0))</f>
-        <v>293</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q50">
+        <v>7.6078789999201001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B51">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C51">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D51">
-        <v>2.24193010008093E-2</v>
+        <v>2.5894259999972701E-2</v>
       </c>
       <c r="E51">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F51">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G51">
-        <v>3.27002530002573E-2</v>
+        <v>3.6759519999918597E-2</v>
       </c>
       <c r="H51">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I51">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="J51">
-        <v>2.5662926000222699E-2</v>
+        <v>3.7825856999916099E-2</v>
       </c>
       <c r="K51">
+        <v>0.75609756097560898</v>
+      </c>
+      <c r="L51">
+        <v>0.429434557601439</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
         <v>39</v>
       </c>
-      <c r="L51">
+      <c r="P51">
         <v>79</v>
       </c>
-      <c r="M51">
-        <v>2.2283349999270199E-3</v>
-      </c>
-      <c r="N51">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="O51" cm="1">
-        <f t="array" ref="O51">INDEX(CHOOSE({1,2,3},C51,F51,I51), MATCH(N51, CHOOSE({1,2,3},B51,E51,H51), 0))</f>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q51">
+        <v>2.3314819999313801E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B52">
         <v>30</v>
@@ -3727,7 +3917,7 @@
         <v>64</v>
       </c>
       <c r="D52">
-        <v>1.31722440000885E-2</v>
+        <v>1.36778169999161E-2</v>
       </c>
       <c r="E52">
         <v>27</v>
@@ -3736,635 +3926,687 @@
         <v>61</v>
       </c>
       <c r="G52">
-        <v>2.39366420000806E-2</v>
+        <v>2.4504222000018599E-2</v>
       </c>
       <c r="H52">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I52">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J52">
-        <v>9.6947789998011995E-3</v>
+        <v>2.85572860000229E-2</v>
       </c>
       <c r="K52">
+        <v>0.76666666666666605</v>
+      </c>
+      <c r="L52">
+        <v>0.42295258468164998</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
         <v>27</v>
       </c>
-      <c r="L52">
+      <c r="P52">
         <v>60</v>
       </c>
-      <c r="M52">
-        <v>2.3840940002628399E-3</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="O52" cm="1">
-        <f t="array" ref="O52">INDEX(CHOOSE({1,2,3},C52,F52,I52), MATCH(N52, CHOOSE({1,2,3},B52,E52,H52), 0))</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q52">
+        <v>2.57171600003403E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B53">
+        <v>222</v>
+      </c>
+      <c r="C53">
+        <v>411</v>
+      </c>
+      <c r="D53">
+        <v>0.10007842200002399</v>
+      </c>
+      <c r="E53">
+        <v>222</v>
+      </c>
+      <c r="F53">
+        <v>339</v>
+      </c>
+      <c r="G53">
+        <v>0.15054137200001999</v>
+      </c>
+      <c r="H53">
+        <v>222</v>
+      </c>
+      <c r="I53">
+        <v>339</v>
+      </c>
+      <c r="J53">
+        <v>0.15002424800002201</v>
+      </c>
+      <c r="K53">
+        <v>0.77272727272727204</v>
+      </c>
+      <c r="L53">
+        <v>0.490463963656667</v>
+      </c>
+      <c r="M53">
+        <v>1.49152542372881</v>
+      </c>
+      <c r="N53">
+        <v>2.0901129752608099</v>
+      </c>
+      <c r="O53">
+        <v>204</v>
+      </c>
+      <c r="P53">
+        <v>356</v>
+      </c>
+      <c r="Q53">
+        <v>8.1239720000212401E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54">
+        <v>195</v>
+      </c>
+      <c r="C54">
+        <v>338</v>
+      </c>
+      <c r="D54">
+        <v>9.9226424999983395E-2</v>
+      </c>
+      <c r="E54">
+        <v>204</v>
+      </c>
+      <c r="F54">
+        <v>265</v>
+      </c>
+      <c r="G54">
+        <v>2.7016357879999702</v>
+      </c>
+      <c r="H54">
+        <v>207</v>
+      </c>
+      <c r="I54">
+        <v>287</v>
+      </c>
+      <c r="J54">
+        <v>0.14931770299995101</v>
+      </c>
+      <c r="K54">
+        <v>0.85496183206106802</v>
+      </c>
+      <c r="L54">
+        <v>0.567869157660986</v>
+      </c>
+      <c r="M54">
+        <v>1.4545454545454499</v>
+      </c>
+      <c r="N54">
+        <v>1.9662440597441899</v>
+      </c>
+      <c r="O54">
+        <v>186</v>
+      </c>
+      <c r="P54">
+        <v>310</v>
+      </c>
+      <c r="Q54">
+        <v>7.0452769999746999E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55">
+        <v>195</v>
+      </c>
+      <c r="C55">
+        <v>345</v>
+      </c>
+      <c r="D55">
+        <v>9.7277767999912598E-2</v>
+      </c>
+      <c r="E55">
+        <v>210</v>
+      </c>
+      <c r="F55">
+        <v>272</v>
+      </c>
+      <c r="G55">
+        <v>3.0212558429999401</v>
+      </c>
+      <c r="H55">
+        <v>216</v>
+      </c>
+      <c r="I55">
+        <v>271</v>
+      </c>
+      <c r="J55">
+        <v>3.5982604100000799</v>
+      </c>
+      <c r="K55">
+        <v>0.85925925925925895</v>
+      </c>
+      <c r="L55">
+        <v>0.55993336856190301</v>
+      </c>
+      <c r="M55">
+        <v>1.4347826086956501</v>
+      </c>
+      <c r="N55">
+        <v>1.9252574521577199</v>
+      </c>
+      <c r="O55">
         <v>198</v>
       </c>
-      <c r="C53">
-        <v>378</v>
-      </c>
-      <c r="D53">
-        <v>8.4341156999471395E-2</v>
-      </c>
-      <c r="E53">
-        <v>204</v>
-      </c>
-      <c r="F53">
-        <v>331</v>
-      </c>
-      <c r="G53">
-        <v>0.70621197600030405</v>
-      </c>
-      <c r="H53">
-        <v>198</v>
-      </c>
-      <c r="I53">
-        <v>376</v>
-      </c>
-      <c r="J53">
-        <v>9.1865701000642702E-2</v>
-      </c>
-      <c r="K53">
-        <v>204</v>
-      </c>
-      <c r="L53">
-        <v>356</v>
-      </c>
-      <c r="M53">
-        <v>7.7330910007731204E-3</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="0"/>
-        <v>198</v>
-      </c>
-      <c r="O53" cm="1">
-        <f t="array" ref="O53">INDEX(CHOOSE({1,2,3},C53,F53,I53), MATCH(N53, CHOOSE({1,2,3},B53,E53,H53), 0))</f>
-        <v>378</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>64</v>
-      </c>
-      <c r="B54">
-        <v>189</v>
-      </c>
-      <c r="C54">
+      <c r="P55">
+        <v>326</v>
+      </c>
+      <c r="Q55">
+        <v>8.2504299999754897E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56">
+        <v>57</v>
+      </c>
+      <c r="C56">
+        <v>109</v>
+      </c>
+      <c r="D56">
+        <v>2.45646390000047E-2</v>
+      </c>
+      <c r="E56">
+        <v>51</v>
+      </c>
+      <c r="F56">
+        <v>93</v>
+      </c>
+      <c r="G56">
+        <v>3.8936797000019299E-2</v>
+      </c>
+      <c r="H56">
+        <v>51</v>
+      </c>
+      <c r="I56">
+        <v>93</v>
+      </c>
+      <c r="J56">
+        <v>3.81487639999704E-2</v>
+      </c>
+      <c r="K56">
+        <v>0.78048780487804803</v>
+      </c>
+      <c r="L56">
+        <v>0.41391616459700298</v>
+      </c>
+      <c r="M56">
+        <v>1.06451612903225</v>
+      </c>
+      <c r="N56">
+        <v>0.245670100189158</v>
+      </c>
+      <c r="O56">
+        <v>51</v>
+      </c>
+      <c r="P56">
+        <v>91</v>
+      </c>
+      <c r="Q56">
+        <v>4.1344060000483296E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57">
+        <v>675</v>
+      </c>
+      <c r="C57">
+        <v>1190</v>
+      </c>
+      <c r="D57">
+        <v>0.29794822199994497</v>
+      </c>
+      <c r="E57">
+        <v>603</v>
+      </c>
+      <c r="F57">
+        <v>858</v>
+      </c>
+      <c r="G57">
+        <v>0.85473891200001595</v>
+      </c>
+      <c r="H57">
+        <v>603</v>
+      </c>
+      <c r="I57">
+        <v>878</v>
+      </c>
+      <c r="J57">
+        <v>0.64946346099998198</v>
+      </c>
+      <c r="K57">
+        <v>0.77064220183486198</v>
+      </c>
+      <c r="L57">
+        <v>0.51816591730065797</v>
+      </c>
+      <c r="M57">
+        <v>1.5611940298507401</v>
+      </c>
+      <c r="N57">
+        <v>2.4667916938525298</v>
+      </c>
+      <c r="O57">
+        <v>594</v>
+      </c>
+      <c r="P57">
+        <v>1038</v>
+      </c>
+      <c r="Q57">
+        <v>2.2396649000029301E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>102</v>
+      </c>
+      <c r="D58">
+        <v>2.65187779999678E-2</v>
+      </c>
+      <c r="E58">
+        <v>48</v>
+      </c>
+      <c r="F58">
+        <v>89</v>
+      </c>
+      <c r="G58">
+        <v>3.6495137999963803E-2</v>
+      </c>
+      <c r="H58">
+        <v>48</v>
+      </c>
+      <c r="I58">
+        <v>89</v>
+      </c>
+      <c r="J58">
+        <v>3.87274670000579E-2</v>
+      </c>
+      <c r="K58">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="L58">
+        <v>0.41758232721225103</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>51</v>
+      </c>
+      <c r="P58">
+        <v>83</v>
+      </c>
+      <c r="Q58">
+        <v>3.9158299999826297E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59">
+        <v>453</v>
+      </c>
+      <c r="C59">
+        <v>840</v>
+      </c>
+      <c r="D59">
+        <v>0.22581769099997401</v>
+      </c>
+      <c r="E59">
+        <v>423</v>
+      </c>
+      <c r="F59">
+        <v>737</v>
+      </c>
+      <c r="G59">
+        <v>2.3596904109999701</v>
+      </c>
+      <c r="H59">
+        <v>456</v>
+      </c>
+      <c r="I59">
+        <v>787</v>
+      </c>
+      <c r="J59">
+        <v>0.42487467900002601</v>
+      </c>
+      <c r="K59">
+        <v>0.77616279069767402</v>
+      </c>
+      <c r="L59">
+        <v>0.53310339458039602</v>
+      </c>
+      <c r="M59">
+        <v>1.8339622641509401</v>
+      </c>
+      <c r="N59">
+        <v>3.38960360548981</v>
+      </c>
+      <c r="O59">
+        <v>477</v>
+      </c>
+      <c r="P59">
+        <v>809</v>
+      </c>
+      <c r="Q59">
+        <v>1.6227511000010901E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60">
+        <v>1014</v>
+      </c>
+      <c r="C60">
+        <v>1765</v>
+      </c>
+      <c r="D60">
+        <v>0.61724816100002</v>
+      </c>
+      <c r="E60">
+        <v>885</v>
+      </c>
+      <c r="F60">
+        <v>1478</v>
+      </c>
+      <c r="G60">
+        <v>8.1666488799999097</v>
+      </c>
+      <c r="H60">
+        <v>996</v>
+      </c>
+      <c r="I60">
+        <v>1604</v>
+      </c>
+      <c r="J60">
+        <v>1.10231331199997</v>
+      </c>
+      <c r="K60">
+        <v>0.78891820580474903</v>
+      </c>
+      <c r="L60">
+        <v>0.47942758432649601</v>
+      </c>
+      <c r="M60">
+        <v>1.47906197654941</v>
+      </c>
+      <c r="N60">
+        <v>1.97003867638269</v>
+      </c>
+      <c r="O60">
+        <v>1128</v>
+      </c>
+      <c r="P60">
+        <v>1917</v>
+      </c>
+      <c r="Q60">
+        <v>3.3168354000054003E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61">
+        <v>255</v>
+      </c>
+      <c r="C61">
+        <v>445</v>
+      </c>
+      <c r="D61">
+        <v>0.138704257999961</v>
+      </c>
+      <c r="E61">
+        <v>228</v>
+      </c>
+      <c r="F61">
         <v>344</v>
       </c>
-      <c r="D54">
-        <v>7.9562160000023099E-2</v>
-      </c>
-      <c r="E54">
-        <v>180</v>
-      </c>
-      <c r="F54">
-        <v>293</v>
-      </c>
-      <c r="G54">
-        <v>0.93981054599953495</v>
-      </c>
-      <c r="H54">
-        <v>183</v>
-      </c>
-      <c r="I54">
-        <v>337</v>
-      </c>
-      <c r="J54">
-        <v>1.9922761249999801</v>
-      </c>
-      <c r="K54">
-        <v>186</v>
-      </c>
-      <c r="L54">
-        <v>310</v>
-      </c>
-      <c r="M54">
-        <v>7.3781170003712699E-3</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="O54" cm="1">
-        <f t="array" ref="O54">INDEX(CHOOSE({1,2,3},C54,F54,I54), MATCH(N54, CHOOSE({1,2,3},B54,E54,H54), 0))</f>
-        <v>293</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55">
-        <v>204</v>
-      </c>
-      <c r="C55">
-        <v>353</v>
-      </c>
-      <c r="D55">
-        <v>8.6591359999147202E-2</v>
-      </c>
-      <c r="E55">
-        <v>213</v>
-      </c>
-      <c r="F55">
-        <v>299</v>
-      </c>
-      <c r="G55">
-        <v>0.123053678999895</v>
-      </c>
-      <c r="H55">
-        <v>195</v>
-      </c>
-      <c r="I55">
-        <v>344</v>
-      </c>
-      <c r="J55">
-        <v>0.53302208799959705</v>
-      </c>
-      <c r="K55">
-        <v>198</v>
-      </c>
-      <c r="L55">
-        <v>326</v>
-      </c>
-      <c r="M55">
-        <v>7.2151829999711403E-3</v>
-      </c>
-      <c r="N55">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="O55" cm="1">
-        <f t="array" ref="O55">INDEX(CHOOSE({1,2,3},C55,F55,I55), MATCH(N55, CHOOSE({1,2,3},B55,E55,H55), 0))</f>
-        <v>344</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56">
-        <v>54</v>
-      </c>
-      <c r="C56">
-        <v>102</v>
-      </c>
-      <c r="D56">
-        <v>2.23593659993639E-2</v>
-      </c>
-      <c r="E56">
-        <v>42</v>
-      </c>
-      <c r="F56">
-        <v>88</v>
-      </c>
-      <c r="G56">
-        <v>0.13284738699985599</v>
-      </c>
-      <c r="H56">
-        <v>48</v>
-      </c>
-      <c r="I56">
-        <v>98</v>
-      </c>
-      <c r="J56">
-        <v>1.1592683389999301</v>
-      </c>
-      <c r="K56">
-        <v>51</v>
-      </c>
-      <c r="L56">
-        <v>91</v>
-      </c>
-      <c r="M56">
-        <v>3.29503500051941E-3</v>
-      </c>
-      <c r="N56">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="O56" cm="1">
-        <f t="array" ref="O56">INDEX(CHOOSE({1,2,3},C56,F56,I56), MATCH(N56, CHOOSE({1,2,3},B56,E56,H56), 0))</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57">
-        <v>579</v>
-      </c>
-      <c r="C57">
-        <v>1059</v>
-      </c>
-      <c r="D57">
-        <v>0.25256656600049598</v>
-      </c>
-      <c r="E57">
-        <v>585</v>
-      </c>
-      <c r="F57">
-        <v>953</v>
-      </c>
-      <c r="G57">
-        <v>4.5603078770000103</v>
-      </c>
-      <c r="H57">
-        <v>579</v>
-      </c>
-      <c r="I57">
-        <v>1059</v>
-      </c>
-      <c r="J57">
-        <v>4.0179302280002904</v>
-      </c>
-      <c r="K57">
-        <v>594</v>
-      </c>
-      <c r="L57">
-        <v>1038</v>
-      </c>
-      <c r="M57">
-        <v>2.22058499994091E-2</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="0"/>
-        <v>579</v>
-      </c>
-      <c r="O57" cm="1">
-        <f t="array" ref="O57">INDEX(CHOOSE({1,2,3},C57,F57,I57), MATCH(N57, CHOOSE({1,2,3},B57,E57,H57), 0))</f>
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58">
-        <v>48</v>
-      </c>
-      <c r="C58">
-        <v>91</v>
-      </c>
-      <c r="D58">
-        <v>2.08923300006063E-2</v>
-      </c>
-      <c r="E58">
-        <v>39</v>
-      </c>
-      <c r="F58">
-        <v>85</v>
-      </c>
-      <c r="G58">
-        <v>3.7698703999922097E-2</v>
-      </c>
-      <c r="H58">
-        <v>42</v>
-      </c>
-      <c r="I58">
-        <v>90</v>
-      </c>
-      <c r="J58">
-        <v>2.8812608999942299E-2</v>
-      </c>
-      <c r="K58">
-        <v>51</v>
-      </c>
-      <c r="L58">
-        <v>83</v>
-      </c>
-      <c r="M58">
-        <v>3.6329229997136198E-3</v>
-      </c>
-      <c r="N58">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="O58" cm="1">
-        <f t="array" ref="O58">INDEX(CHOOSE({1,2,3},C58,F58,I58), MATCH(N58, CHOOSE({1,2,3},B58,E58,H58), 0))</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59">
-        <v>456</v>
-      </c>
-      <c r="C59">
-        <v>830</v>
-      </c>
-      <c r="D59">
-        <v>0.201349655999365</v>
-      </c>
-      <c r="E59">
-        <v>408</v>
-      </c>
-      <c r="F59">
-        <v>686</v>
-      </c>
-      <c r="G59">
-        <v>2.5037149550007598</v>
-      </c>
-      <c r="H59">
-        <v>438</v>
-      </c>
-      <c r="I59">
-        <v>803</v>
-      </c>
-      <c r="J59">
-        <v>30.029761362999999</v>
-      </c>
-      <c r="K59">
-        <v>477</v>
-      </c>
-      <c r="L59">
-        <v>809</v>
-      </c>
-      <c r="M59">
-        <v>1.3883486999475199E-2</v>
-      </c>
-      <c r="N59">
-        <f t="shared" si="0"/>
-        <v>408</v>
-      </c>
-      <c r="O59" cm="1">
-        <f t="array" ref="O59">INDEX(CHOOSE({1,2,3},C59,F59,I59), MATCH(N59, CHOOSE({1,2,3},B59,E59,H59), 0))</f>
-        <v>686</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60">
-        <v>1218</v>
-      </c>
-      <c r="C60">
-        <v>2005</v>
-      </c>
-      <c r="D60">
-        <v>0.52783010100029004</v>
-      </c>
-      <c r="E60">
-        <v>1128</v>
-      </c>
-      <c r="F60">
-        <v>1621</v>
-      </c>
-      <c r="G60">
-        <v>2.07695306100049</v>
-      </c>
-      <c r="H60">
-        <v>1164</v>
-      </c>
-      <c r="I60">
-        <v>1966</v>
-      </c>
-      <c r="J60">
-        <v>90.076633233000393</v>
-      </c>
-      <c r="K60">
-        <v>1128</v>
-      </c>
-      <c r="L60">
-        <v>1917</v>
-      </c>
-      <c r="M60">
-        <v>2.9728221999903302E-2</v>
-      </c>
-      <c r="N60">
-        <f t="shared" si="0"/>
-        <v>1128</v>
-      </c>
-      <c r="O60" cm="1">
-        <f t="array" ref="O60">INDEX(CHOOSE({1,2,3},C60,F60,I60), MATCH(N60, CHOOSE({1,2,3},B60,E60,H60), 0))</f>
-        <v>1621</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61">
-        <v>249</v>
-      </c>
-      <c r="C61">
-        <v>439</v>
-      </c>
-      <c r="D61">
-        <v>0.10689355499926</v>
-      </c>
-      <c r="E61">
-        <v>222</v>
-      </c>
-      <c r="F61">
-        <v>412</v>
-      </c>
       <c r="G61">
-        <v>6.7871071949994004</v>
+        <v>1.59664417199996</v>
       </c>
       <c r="H61">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="I61">
-        <v>432</v>
+        <v>388</v>
       </c>
       <c r="J61">
-        <v>2.80409516199961</v>
+        <v>0.28127435399994699</v>
       </c>
       <c r="K61">
+        <v>0.80540540540540495</v>
+      </c>
+      <c r="L61">
+        <v>0.493167339587331</v>
+      </c>
+      <c r="M61">
+        <v>1.39864864864864</v>
+      </c>
+      <c r="N61">
+        <v>1.49657205091477</v>
+      </c>
+      <c r="O61">
         <v>219</v>
       </c>
-      <c r="L61">
+      <c r="P61">
         <v>422</v>
       </c>
-      <c r="M61">
-        <v>6.6776590001609197E-3</v>
-      </c>
-      <c r="N61">
-        <f t="shared" si="0"/>
-        <v>222</v>
-      </c>
-      <c r="O61" cm="1">
-        <f t="array" ref="O61">INDEX(CHOOSE({1,2,3},C61,F61,I61), MATCH(N61, CHOOSE({1,2,3},B61,E61,H61), 0))</f>
-        <v>412</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q61">
+        <v>7.5991259999454996E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B62">
         <v>261</v>
       </c>
       <c r="C62">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="D62">
-        <v>1.71639874300035</v>
+        <v>0.114857363000055</v>
       </c>
       <c r="E62">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="F62">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="G62">
-        <v>1.5746065169996599</v>
+        <v>0.415884085000016</v>
       </c>
       <c r="H62">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="I62">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="J62">
-        <v>2.6052872769996598</v>
+        <v>0.38149732899989802</v>
       </c>
       <c r="K62">
+        <v>0.84276729559748398</v>
+      </c>
+      <c r="L62">
+        <v>0.55552786608738502</v>
+      </c>
+      <c r="M62">
+        <v>1.62121212121212</v>
+      </c>
+      <c r="N62">
+        <v>3.5022293831178799</v>
+      </c>
+      <c r="O62">
         <v>276</v>
       </c>
-      <c r="L62">
+      <c r="P62">
         <v>395</v>
       </c>
-      <c r="M62">
-        <v>9.6185719994536997E-3</v>
-      </c>
-      <c r="N62">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="O62" cm="1">
-        <f t="array" ref="O62">INDEX(CHOOSE({1,2,3},C62,F62,I62), MATCH(N62, CHOOSE({1,2,3},B62,E62,H62), 0))</f>
-        <v>367</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q62">
+        <v>1.0327413000027199E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B63">
+        <v>60</v>
+      </c>
+      <c r="C63">
+        <v>114</v>
+      </c>
+      <c r="D63">
+        <v>2.6777260000017102E-2</v>
+      </c>
+      <c r="E63">
+        <v>60</v>
+      </c>
+      <c r="F63">
+        <v>102</v>
+      </c>
+      <c r="G63">
+        <v>4.1155683000056301E-2</v>
+      </c>
+      <c r="H63">
+        <v>60</v>
+      </c>
+      <c r="I63">
+        <v>102</v>
+      </c>
+      <c r="J63">
+        <v>4.44089289999283E-2</v>
+      </c>
+      <c r="K63">
+        <v>0.76595744680850997</v>
+      </c>
+      <c r="L63">
+        <v>0.42339890940707198</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
         <v>57</v>
       </c>
-      <c r="C63">
-        <v>111</v>
-      </c>
-      <c r="D63">
-        <v>2.3667012000260002E-2</v>
-      </c>
-      <c r="E63">
-        <v>57</v>
-      </c>
-      <c r="F63">
-        <v>96</v>
-      </c>
-      <c r="G63">
-        <v>3.6714587999995198E-2</v>
-      </c>
-      <c r="H63">
-        <v>57</v>
-      </c>
-      <c r="I63">
-        <v>111</v>
-      </c>
-      <c r="J63">
-        <v>2.1722399000282101E-2</v>
-      </c>
-      <c r="K63">
-        <v>57</v>
-      </c>
-      <c r="L63">
+      <c r="P63">
         <v>103</v>
       </c>
-      <c r="M63">
-        <v>3.2221500005107299E-3</v>
-      </c>
-      <c r="N63">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="O63" cm="1">
-        <f t="array" ref="O63">INDEX(CHOOSE({1,2,3},C63,F63,I63), MATCH(N63, CHOOSE({1,2,3},B63,E63,H63), 0))</f>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q63">
+        <v>3.2576029999518098E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B64">
-        <v>939</v>
+        <v>1014</v>
       </c>
       <c r="C64">
-        <v>1645</v>
+        <v>1699</v>
       </c>
       <c r="D64">
-        <v>0.41205615099988702</v>
+        <v>0.49707048799996301</v>
       </c>
       <c r="E64">
         <v>1014</v>
       </c>
       <c r="F64">
-        <v>1373</v>
+        <v>1404</v>
       </c>
       <c r="G64">
-        <v>14.099952902</v>
+        <v>8.3973919659999794</v>
       </c>
       <c r="H64">
-        <v>936</v>
+        <v>984</v>
       </c>
       <c r="I64">
-        <v>1626</v>
+        <v>1504</v>
       </c>
       <c r="J64">
-        <v>82.816172057999196</v>
+        <v>1.4560510850000099</v>
       </c>
       <c r="K64">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="L64">
+        <v>0.54103839707409995</v>
+      </c>
+      <c r="M64">
+        <v>1.8301886792452799</v>
+      </c>
+      <c r="N64">
+        <v>3.2478489198097802</v>
+      </c>
+      <c r="O64">
         <v>1023</v>
       </c>
-      <c r="L64">
+      <c r="P64">
         <v>1677</v>
       </c>
-      <c r="M64">
-        <v>2.8391398000167101E-2</v>
-      </c>
-      <c r="N64">
-        <f t="shared" si="0"/>
-        <v>936</v>
-      </c>
-      <c r="O64" cm="1">
-        <f t="array" ref="O64">INDEX(CHOOSE({1,2,3},C64,F64,I64), MATCH(N64, CHOOSE({1,2,3},B64,E64,H64), 0))</f>
-        <v>1626</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q64">
+        <v>3.09894320000694E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B65">
         <v>108</v>
       </c>
       <c r="C65">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D65">
-        <v>4.7796855999877097E-2</v>
+        <v>4.9594245999969602E-2</v>
       </c>
       <c r="E65">
         <v>108</v>
@@ -4373,243 +4615,263 @@
         <v>180</v>
       </c>
       <c r="G65">
-        <v>7.2044476999508306E-2</v>
+        <v>7.5003501999958602E-2</v>
       </c>
       <c r="H65">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="I65">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="J65">
-        <v>6.6240289999768706E-2</v>
+        <v>7.3406299999987795E-2</v>
       </c>
       <c r="K65">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="L65">
+        <v>0.48968961431435998</v>
+      </c>
+      <c r="M65">
+        <v>1.3846153846153799</v>
+      </c>
+      <c r="N65">
+        <v>1.45382580368337</v>
+      </c>
+      <c r="O65">
         <v>111</v>
       </c>
-      <c r="L65">
+      <c r="P65">
         <v>200</v>
       </c>
-      <c r="M65">
-        <v>4.6614299999419E-3</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="O65" cm="1">
-        <f t="array" ref="O65">INDEX(CHOOSE({1,2,3},C65,F65,I65), MATCH(N65, CHOOSE({1,2,3},B65,E65,H65), 0))</f>
-        <v>207</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q65">
+        <v>4.9990660000958E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B66">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="C66">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="D66">
-        <v>7.1750666000298197E-2</v>
+        <v>5.8491595999953398E-2</v>
       </c>
       <c r="E66">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="F66">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="G66">
-        <v>0.69082795599933799</v>
+        <v>2.2639703959999902</v>
       </c>
       <c r="H66">
+        <v>183</v>
+      </c>
+      <c r="I66">
+        <v>195</v>
+      </c>
+      <c r="J66">
+        <v>0.584629087000053</v>
+      </c>
+      <c r="K66">
+        <v>1.4285714285714199</v>
+      </c>
+      <c r="L66">
+        <v>0.84916926191080899</v>
+      </c>
+      <c r="M66">
+        <v>1.5393258426966201</v>
+      </c>
+      <c r="N66">
+        <v>0.49845107893974899</v>
+      </c>
+      <c r="O66">
         <v>117</v>
       </c>
-      <c r="I66">
-        <v>137</v>
-      </c>
-      <c r="J66">
-        <v>13.6004664800002</v>
-      </c>
-      <c r="K66">
-        <v>117</v>
-      </c>
-      <c r="L66">
+      <c r="P66">
         <v>152</v>
       </c>
-      <c r="M66">
-        <v>4.9731910003174501E-3</v>
-      </c>
-      <c r="N66">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="O66" cm="1">
-        <f t="array" ref="O66">INDEX(CHOOSE({1,2,3},C66,F66,I66), MATCH(N66, CHOOSE({1,2,3},B66,E66,H66), 0))</f>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q66">
+        <v>5.2907790000062899E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B67">
-        <v>954</v>
+        <v>1146</v>
       </c>
       <c r="C67">
-        <v>1714</v>
+        <v>1890</v>
       </c>
       <c r="D67">
-        <v>0.51303800599998794</v>
+        <v>0.54606808500000104</v>
       </c>
       <c r="E67">
-        <v>960</v>
+        <v>1293</v>
       </c>
       <c r="F67">
-        <v>1551</v>
+        <v>1469</v>
       </c>
       <c r="G67">
-        <v>5.3254449489995697</v>
+        <v>2.5133687700000502</v>
       </c>
       <c r="H67">
-        <v>927</v>
+        <v>1302</v>
       </c>
       <c r="I67">
-        <v>1695</v>
+        <v>1534</v>
       </c>
       <c r="J67">
-        <v>101.963764904</v>
+        <v>1.4637156099999999</v>
       </c>
       <c r="K67">
+        <v>0.79213483146067398</v>
+      </c>
+      <c r="L67">
+        <v>0.53163405490744398</v>
+      </c>
+      <c r="M67">
+        <v>1.6263345195729499</v>
+      </c>
+      <c r="N67">
+        <v>2.7953730991660999</v>
+      </c>
+      <c r="O67">
         <v>1023</v>
       </c>
-      <c r="L67">
+      <c r="P67">
         <v>1732</v>
       </c>
-      <c r="M67">
-        <v>2.81949950003763E-2</v>
-      </c>
-      <c r="N67">
-        <f t="shared" ref="N67:N92" si="1">MIN(B67,E67,H67)</f>
-        <v>927</v>
-      </c>
-      <c r="O67" cm="1">
-        <f t="array" ref="O67">INDEX(CHOOSE({1,2,3},C67,F67,I67), MATCH(N67, CHOOSE({1,2,3},B67,E67,H67), 0))</f>
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q67">
+        <v>3.20518669999501E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B68">
-        <v>1743</v>
+        <v>1782</v>
       </c>
       <c r="C68">
-        <v>2737</v>
+        <v>2762</v>
       </c>
       <c r="D68">
-        <v>0.77606607799952998</v>
+        <v>1.01661337799998</v>
       </c>
       <c r="E68">
-        <v>1632</v>
+        <v>1641</v>
       </c>
       <c r="F68">
-        <v>2274</v>
+        <v>1996</v>
       </c>
       <c r="G68">
-        <v>19.071445771</v>
+        <v>27.968264607999998</v>
       </c>
       <c r="H68">
-        <v>1692</v>
+        <v>1815</v>
       </c>
       <c r="I68">
-        <v>2658</v>
+        <v>2195</v>
       </c>
       <c r="J68">
-        <v>200.937478975999</v>
+        <v>3.4082231480000398</v>
       </c>
       <c r="K68">
+        <v>0.82840800762630995</v>
+      </c>
+      <c r="L68">
+        <v>0.55671089221832504</v>
+      </c>
+      <c r="M68">
+        <v>1.9965397923875401</v>
+      </c>
+      <c r="N68">
+        <v>4.7123717044788798</v>
+      </c>
+      <c r="O68">
         <v>1680</v>
       </c>
-      <c r="L68">
+      <c r="P68">
         <v>2557</v>
       </c>
-      <c r="M68">
-        <v>5.1529247999496798E-2</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="1"/>
-        <v>1632</v>
-      </c>
-      <c r="O68" cm="1">
-        <f t="array" ref="O68">INDEX(CHOOSE({1,2,3},C68,F68,I68), MATCH(N68, CHOOSE({1,2,3},B68,E68,H68), 0))</f>
-        <v>2274</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q68">
+        <v>5.0472505000016099E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B69">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="C69">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="D69">
-        <v>7.7411307999682294E-2</v>
+        <v>9.4491620000098905E-2</v>
       </c>
       <c r="E69">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="F69">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="G69">
-        <v>0.53627646699987896</v>
+        <v>2.3148390690000702</v>
       </c>
       <c r="H69">
-        <v>171</v>
+        <v>219</v>
       </c>
       <c r="I69">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="J69">
-        <v>0.137200907000078</v>
+        <v>0.28613824199999199</v>
       </c>
       <c r="K69">
+        <v>0.79562043795620396</v>
+      </c>
+      <c r="L69">
+        <v>0.50019975763538105</v>
+      </c>
+      <c r="M69">
+        <v>1.4629629629629599</v>
+      </c>
+      <c r="N69">
+        <v>2.0612200896283501</v>
+      </c>
+      <c r="O69">
         <v>189</v>
       </c>
-      <c r="L69">
+      <c r="P69">
         <v>324</v>
       </c>
-      <c r="M69">
-        <v>7.5389229996289898E-3</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="1"/>
-        <v>171</v>
-      </c>
-      <c r="O69" cm="1">
-        <f t="array" ref="O69">INDEX(CHOOSE({1,2,3},C69,F69,I69), MATCH(N69, CHOOSE({1,2,3},B69,E69,H69), 0))</f>
-        <v>306</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q69">
+        <v>7.8828989999237802E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B70">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C70">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D70">
-        <v>1.764002300024E-2</v>
+        <v>1.7974495000089501E-2</v>
       </c>
       <c r="E70">
         <v>42</v>
@@ -4618,586 +4880,634 @@
         <v>74</v>
       </c>
       <c r="G70">
-        <v>3.1264214999282502E-2</v>
+        <v>3.0667982999943801E-2</v>
       </c>
       <c r="H70">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I70">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="J70">
-        <v>1.9903293999959701E-2</v>
+        <v>3.26510539999844E-2</v>
       </c>
       <c r="K70">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="L70">
+        <v>0.52922480616795597</v>
+      </c>
+      <c r="M70">
+        <v>1.4827586206896499</v>
+      </c>
+      <c r="N70">
+        <v>1.7931034482758601</v>
+      </c>
+      <c r="O70">
         <v>45</v>
       </c>
-      <c r="L70">
+      <c r="P70">
         <v>86</v>
       </c>
-      <c r="M70">
-        <v>2.5466380002399001E-3</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="O70" cm="1">
-        <f t="array" ref="O70">INDEX(CHOOSE({1,2,3},C70,F70,I70), MATCH(N70, CHOOSE({1,2,3},B70,E70,H70), 0))</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q70">
+        <v>2.4804250000443001E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B71">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C71">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D71">
-        <v>0.145935716000167</v>
+        <v>0.146875888999943</v>
       </c>
       <c r="E71">
         <v>345</v>
       </c>
       <c r="F71">
+        <v>497</v>
+      </c>
+      <c r="G71">
+        <v>0.32330802600006298</v>
+      </c>
+      <c r="H71">
+        <v>345</v>
+      </c>
+      <c r="I71">
         <v>494</v>
       </c>
-      <c r="G71">
-        <v>0.25208271500014201</v>
-      </c>
-      <c r="H71">
-        <v>321</v>
-      </c>
-      <c r="I71">
-        <v>597</v>
-      </c>
       <c r="J71">
-        <v>5.0792162280003996</v>
+        <v>0.28185634999999798</v>
       </c>
       <c r="K71">
+        <v>0.78854625550660795</v>
+      </c>
+      <c r="L71">
+        <v>0.50482351897010702</v>
+      </c>
+      <c r="M71">
+        <v>1.4606741573033699</v>
+      </c>
+      <c r="N71">
+        <v>1.93173485383267</v>
+      </c>
+      <c r="O71">
         <v>336</v>
       </c>
-      <c r="L71">
+      <c r="P71">
         <v>587</v>
       </c>
-      <c r="M71">
-        <v>9.5599480000600999E-3</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="1"/>
-        <v>321</v>
-      </c>
-      <c r="O71" cm="1">
-        <f t="array" ref="O71">INDEX(CHOOSE({1,2,3},C71,F71,I71), MATCH(N71, CHOOSE({1,2,3},B71,E71,H71), 0))</f>
-        <v>597</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q71">
+        <v>9.9598150000019797E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B72">
         <v>225</v>
       </c>
       <c r="C72">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="D72">
-        <v>9.9893286000224096E-2</v>
+        <v>0.102504698000075</v>
       </c>
       <c r="E72">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="F72">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="G72">
-        <v>1.1260963399999999</v>
+        <v>0.13619589600000301</v>
       </c>
       <c r="H72">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="I72">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="J72">
-        <v>3.6271877389999601</v>
+        <v>0.140246707000073</v>
       </c>
       <c r="K72">
+        <v>0.78527607361963103</v>
+      </c>
+      <c r="L72">
+        <v>0.51650466699016395</v>
+      </c>
+      <c r="M72">
+        <v>1.3937007874015701</v>
+      </c>
+      <c r="N72">
+        <v>1.4909568893515599</v>
+      </c>
+      <c r="O72">
         <v>186</v>
       </c>
-      <c r="L72">
+      <c r="P72">
         <v>360</v>
       </c>
-      <c r="M72">
-        <v>6.0107600002083901E-3</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="1"/>
-        <v>192</v>
-      </c>
-      <c r="O72" cm="1">
-        <f t="array" ref="O72">INDEX(CHOOSE({1,2,3},C72,F72,I72), MATCH(N72, CHOOSE({1,2,3},B72,E72,H72), 0))</f>
-        <v>322</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q72">
+        <v>5.8340439999255899E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B73">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="C73">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="D73">
-        <v>0.13968967999971901</v>
+        <v>0.14747700200007299</v>
       </c>
       <c r="E73">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="F73">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G73">
-        <v>22.153888228000099</v>
+        <v>21.306658715000001</v>
       </c>
       <c r="H73">
+        <v>321</v>
+      </c>
+      <c r="I73">
+        <v>291</v>
+      </c>
+      <c r="J73">
+        <v>1.9320086029999799</v>
+      </c>
+      <c r="K73">
+        <v>1.4</v>
+      </c>
+      <c r="L73">
+        <v>0.91651513899116699</v>
+      </c>
+      <c r="M73">
+        <v>1.5620915032679701</v>
+      </c>
+      <c r="N73">
+        <v>2.5815586955978098</v>
+      </c>
+      <c r="O73">
         <v>288</v>
       </c>
-      <c r="I73">
-        <v>276</v>
-      </c>
-      <c r="J73">
-        <v>22.131092213999999</v>
-      </c>
-      <c r="K73">
-        <v>288</v>
-      </c>
-      <c r="L73">
+      <c r="P73">
         <v>375</v>
       </c>
-      <c r="M73">
-        <v>1.4623598000071E-2</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="O73" cm="1">
-        <f t="array" ref="O73">INDEX(CHOOSE({1,2,3},C73,F73,I73), MATCH(N73, CHOOSE({1,2,3},B73,E73,H73), 0))</f>
-        <v>271</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q73">
+        <v>1.97967970000263E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B74">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C74">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D74">
-        <v>5.2294548000645501E-2</v>
+        <v>5.1055400999984998E-2</v>
       </c>
       <c r="E74">
         <v>132</v>
       </c>
       <c r="F74">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G74">
-        <v>8.5791692999919095E-2</v>
+        <v>0.18913889299994899</v>
       </c>
       <c r="H74">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="I74">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="J74">
-        <v>0.25092867400053298</v>
+        <v>0.15846998199992801</v>
       </c>
       <c r="K74">
+        <v>0.76595744680850997</v>
+      </c>
+      <c r="L74">
+        <v>0.51417216908912999</v>
+      </c>
+      <c r="M74">
+        <v>1.3380281690140801</v>
+      </c>
+      <c r="N74">
+        <v>1.3834399051052</v>
+      </c>
+      <c r="O74">
         <v>126</v>
       </c>
-      <c r="L74">
+      <c r="P74">
         <v>223</v>
       </c>
-      <c r="M74">
-        <v>5.8180169999104596E-3</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="O74" cm="1">
-        <f t="array" ref="O74">INDEX(CHOOSE({1,2,3},C74,F74,I74), MATCH(N74, CHOOSE({1,2,3},B74,E74,H74), 0))</f>
-        <v>228</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q74">
+        <v>5.6529470000441498E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B75">
         <v>972</v>
       </c>
       <c r="C75">
-        <v>1738</v>
+        <v>1687</v>
       </c>
       <c r="D75">
-        <v>0.509024689999932</v>
+        <v>0.45447353999998003</v>
       </c>
       <c r="E75">
-        <v>822</v>
+        <v>960</v>
       </c>
       <c r="F75">
-        <v>1317</v>
+        <v>1242</v>
       </c>
       <c r="G75">
-        <v>7.2651880449993698</v>
+        <v>8.18966394100004</v>
       </c>
       <c r="H75">
-        <v>969</v>
+        <v>1023</v>
       </c>
       <c r="I75">
-        <v>1711</v>
+        <v>1362</v>
       </c>
       <c r="J75">
-        <v>48.537203675999898</v>
+        <v>1.19516279599997</v>
       </c>
       <c r="K75">
+        <v>0.78592814371257402</v>
+      </c>
+      <c r="L75">
+        <v>0.53386474288807395</v>
+      </c>
+      <c r="M75">
+        <v>1.85086042065009</v>
+      </c>
+      <c r="N75">
+        <v>3.4697179790759001</v>
+      </c>
+      <c r="O75">
         <v>909</v>
       </c>
-      <c r="L75">
+      <c r="P75">
         <v>1606</v>
       </c>
-      <c r="M75">
-        <v>2.6996659000360499E-2</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="1"/>
-        <v>822</v>
-      </c>
-      <c r="O75" cm="1">
-        <f t="array" ref="O75">INDEX(CHOOSE({1,2,3},C75,F75,I75), MATCH(N75, CHOOSE({1,2,3},B75,E75,H75), 0))</f>
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q75">
+        <v>3.0409248000069E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B76">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C76">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="D76">
-        <v>0.12419920100001</v>
+        <v>0.14442513699998399</v>
       </c>
       <c r="E76">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="F76">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G76">
-        <v>11.737131249000401</v>
+        <v>12.519857557</v>
       </c>
       <c r="H76">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="I76">
-        <v>350</v>
+        <v>324</v>
       </c>
       <c r="J76">
-        <v>7.8588317880003098</v>
+        <v>1.4233393090000801</v>
       </c>
       <c r="K76">
+        <v>1.16535433070866</v>
+      </c>
+      <c r="L76">
+        <v>0.68463197226091799</v>
+      </c>
+      <c r="M76">
+        <v>1.33103448275862</v>
+      </c>
+      <c r="N76">
+        <v>1.3997791570337399</v>
+      </c>
+      <c r="O76">
         <v>255</v>
       </c>
-      <c r="L76">
+      <c r="P76">
         <v>369</v>
       </c>
-      <c r="M76">
-        <v>9.25490500048908E-3</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="1"/>
-        <v>234</v>
-      </c>
-      <c r="O76" cm="1">
-        <f t="array" ref="O76">INDEX(CHOOSE({1,2,3},C76,F76,I76), MATCH(N76, CHOOSE({1,2,3},B76,E76,H76), 0))</f>
-        <v>299</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q76">
+        <v>7.9755110000405693E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B77">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C77">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="D77">
-        <v>4.0360178000810203E-2</v>
+        <v>3.1236504000048598E-2</v>
       </c>
       <c r="E77">
         <v>69</v>
       </c>
       <c r="F77">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G77">
-        <v>5.26205160003883E-2</v>
+        <v>5.2186110999968997E-2</v>
       </c>
       <c r="H77">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="I77">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="J77">
-        <v>8.1503671000064004E-2</v>
+        <v>5.2497199000072201E-2</v>
       </c>
       <c r="K77">
+        <v>0.77272727272727204</v>
+      </c>
+      <c r="L77">
+        <v>0.48603075552561897</v>
+      </c>
+      <c r="M77">
+        <v>1.24489795918367</v>
+      </c>
+      <c r="N77">
+        <v>1.1871869038570599</v>
+      </c>
+      <c r="O77">
         <v>69</v>
       </c>
-      <c r="L77">
+      <c r="P77">
         <v>140</v>
       </c>
-      <c r="M77">
-        <v>4.1030669999599896E-3</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="O77" cm="1">
-        <f t="array" ref="O77">INDEX(CHOOSE({1,2,3},C77,F77,I77), MATCH(N77, CHOOSE({1,2,3},B77,E77,H77), 0))</f>
-        <v>133</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q77">
+        <v>3.4399310000026101E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B78">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="C78">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D78">
-        <v>2.8603839999959701E-2</v>
+        <v>2.5224736999916699E-2</v>
       </c>
       <c r="E78">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="F78">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G78">
-        <v>4.5263487999363798E-2</v>
+        <v>4.2475386999967599E-2</v>
       </c>
       <c r="H78">
+        <v>63</v>
+      </c>
+      <c r="I78">
+        <v>110</v>
+      </c>
+      <c r="J78">
+        <v>4.0753704000053403E-2</v>
+      </c>
+      <c r="K78">
+        <v>0.79166666666666596</v>
+      </c>
+      <c r="L78">
+        <v>0.45452967144315398</v>
+      </c>
+      <c r="M78">
+        <v>1.44444444444444</v>
+      </c>
+      <c r="N78">
+        <v>2.4658156690191202</v>
+      </c>
+      <c r="O78">
         <v>66</v>
       </c>
-      <c r="I78">
-        <v>117</v>
-      </c>
-      <c r="J78">
-        <v>0.83487908899951402</v>
-      </c>
-      <c r="K78">
-        <v>66</v>
-      </c>
-      <c r="L78">
+      <c r="P78">
         <v>105</v>
       </c>
-      <c r="M78">
-        <v>2.9004870002609E-3</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-      <c r="O78" cm="1">
-        <f t="array" ref="O78">INDEX(CHOOSE({1,2,3},C78,F78,I78), MATCH(N78, CHOOSE({1,2,3},B78,E78,H78), 0))</f>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q78">
+        <v>2.82192200006647E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B79">
         <v>60</v>
       </c>
       <c r="C79">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D79">
-        <v>2.52364660000239E-2</v>
+        <v>2.6007735999883101E-2</v>
       </c>
       <c r="E79">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F79">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G79">
-        <v>3.8640198999928502E-2</v>
+        <v>5.5609843000183901E-2</v>
       </c>
       <c r="H79">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I79">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J79">
-        <v>4.3196076000640397E-2</v>
+        <v>5.2260030000070401E-2</v>
       </c>
       <c r="K79">
+        <v>0.80851063829787195</v>
+      </c>
+      <c r="L79">
+        <v>0.53148919135305495</v>
+      </c>
+      <c r="M79">
+        <v>1.5405405405405399</v>
+      </c>
+      <c r="N79">
+        <v>1.7335262390080599</v>
+      </c>
+      <c r="O79">
         <v>54</v>
       </c>
-      <c r="L79">
+      <c r="P79">
         <v>103</v>
       </c>
-      <c r="M79">
-        <v>2.8654430007008999E-3</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="O79" cm="1">
-        <f t="array" ref="O79">INDEX(CHOOSE({1,2,3},C79,F79,I79), MATCH(N79, CHOOSE({1,2,3},B79,E79,H79), 0))</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q79">
+        <v>2.9568880001988799E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B80">
         <v>123</v>
       </c>
       <c r="C80">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D80">
-        <v>5.2572788999896099E-2</v>
+        <v>5.8015596999894101E-2</v>
       </c>
       <c r="E80">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F80">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G80">
-        <v>7.5689684000280893E-2</v>
+        <v>0.32701960100007399</v>
       </c>
       <c r="H80">
+        <v>111</v>
+      </c>
+      <c r="I80">
+        <v>195</v>
+      </c>
+      <c r="J80">
+        <v>9.5186619000059994E-2</v>
+      </c>
+      <c r="K80">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="L80">
+        <v>0.50703929520393898</v>
+      </c>
+      <c r="M80">
+        <v>1.35211267605633</v>
+      </c>
+      <c r="N80">
+        <v>1.38501631199318</v>
+      </c>
+      <c r="O80">
         <v>123</v>
       </c>
-      <c r="I80">
-        <v>227</v>
-      </c>
-      <c r="J80">
-        <v>9.0511091999360305E-2</v>
-      </c>
-      <c r="K80">
-        <v>123</v>
-      </c>
-      <c r="L80">
+      <c r="P80">
         <v>219</v>
       </c>
-      <c r="M80">
-        <v>5.04224900032568E-3</v>
-      </c>
-      <c r="N80">
-        <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
-      <c r="O80" cm="1">
-        <f t="array" ref="O80">INDEX(CHOOSE({1,2,3},C80,F80,I80), MATCH(N80, CHOOSE({1,2,3},B80,E80,H80), 0))</f>
-        <v>199</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q80">
+        <v>5.66577599988704E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B81">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="C81">
-        <v>334</v>
+        <v>306</v>
       </c>
       <c r="D81">
-        <v>0.193035385999792</v>
+        <v>0.22065331599992499</v>
       </c>
       <c r="E81">
-        <v>498</v>
+        <v>627</v>
       </c>
       <c r="F81">
-        <v>385</v>
+        <v>480</v>
       </c>
       <c r="G81">
-        <v>18.3303532139998</v>
+        <v>18.043144813000001</v>
       </c>
       <c r="H81">
-        <v>336</v>
+        <v>705</v>
       </c>
       <c r="I81">
-        <v>325</v>
+        <v>513</v>
       </c>
       <c r="J81">
-        <v>39.437769553999701</v>
+        <v>4.0018649260000503</v>
       </c>
       <c r="K81">
+        <v>2.2857142857142798</v>
+      </c>
+      <c r="L81">
+        <v>1.29992150469455</v>
+      </c>
+      <c r="M81">
+        <v>1.5397489539748901</v>
+      </c>
+      <c r="N81">
+        <v>0.49841751640356802</v>
+      </c>
+      <c r="O81">
         <v>372</v>
       </c>
-      <c r="L81">
+      <c r="P81">
         <v>344</v>
       </c>
-      <c r="M81">
-        <v>1.2098219000108599E-2</v>
-      </c>
-      <c r="N81">
-        <f t="shared" si="1"/>
-        <v>324</v>
-      </c>
-      <c r="O81" cm="1">
-        <f t="array" ref="O81">INDEX(CHOOSE({1,2,3},C81,F81,I81), MATCH(N81, CHOOSE({1,2,3},B81,E81,H81), 0))</f>
-        <v>334</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q81">
+        <v>1.3089564999972899E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B82">
         <v>33</v>
       </c>
       <c r="C82">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D82">
-        <v>1.41876540001248E-2</v>
+        <v>1.4245932999983699E-2</v>
       </c>
       <c r="E82">
         <v>33</v>
@@ -5206,145 +5516,157 @@
         <v>67</v>
       </c>
       <c r="G82">
-        <v>2.47684060004758E-2</v>
+        <v>2.39648039998883E-2</v>
       </c>
       <c r="H82">
         <v>33</v>
       </c>
       <c r="I82">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J82">
-        <v>2.2420467999836501E-2</v>
+        <v>2.6337485000112699E-2</v>
       </c>
       <c r="K82">
+        <v>0.73333333333333295</v>
+      </c>
+      <c r="L82">
+        <v>0.44221663871405298</v>
+      </c>
+      <c r="M82">
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
         <v>30</v>
       </c>
-      <c r="L82">
+      <c r="P82">
         <v>64</v>
       </c>
-      <c r="M82">
-        <v>2.4379619999308402E-3</v>
-      </c>
-      <c r="N82">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="O82" cm="1">
-        <f t="array" ref="O82">INDEX(CHOOSE({1,2,3},C82,F82,I82), MATCH(N82, CHOOSE({1,2,3},B82,E82,H82), 0))</f>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q82">
+        <v>2.6995670000360401E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B83">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="C83">
-        <v>532</v>
+        <v>581</v>
       </c>
       <c r="D83">
-        <v>0.187676260999978</v>
+        <v>0.196177141999896</v>
       </c>
       <c r="E83">
-        <v>456</v>
+        <v>366</v>
       </c>
       <c r="F83">
-        <v>413</v>
+        <v>273</v>
       </c>
       <c r="G83">
-        <v>5.2192807820001601</v>
+        <v>16.882670287000099</v>
       </c>
       <c r="H83">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="I83">
-        <v>530</v>
+        <v>290</v>
       </c>
       <c r="J83">
-        <v>21.299344700999399</v>
+        <v>1.0568572360000399</v>
       </c>
       <c r="K83">
+        <v>1.02870813397129</v>
+      </c>
+      <c r="L83">
+        <v>0.71827728248019895</v>
+      </c>
+      <c r="M83">
+        <v>1.3981042654028399</v>
+      </c>
+      <c r="N83">
+        <v>1.5216591744399099</v>
+      </c>
+      <c r="O83">
         <v>471</v>
       </c>
-      <c r="L83">
+      <c r="P83">
         <v>564</v>
       </c>
-      <c r="M83">
-        <v>2.4451559999761199E-2</v>
-      </c>
-      <c r="N83">
-        <f t="shared" si="1"/>
-        <v>387</v>
-      </c>
-      <c r="O83" cm="1">
-        <f t="array" ref="O83">INDEX(CHOOSE({1,2,3},C83,F83,I83), MATCH(N83, CHOOSE({1,2,3},B83,E83,H83), 0))</f>
-        <v>530</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q83">
+        <v>2.3302620000094899E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B84">
-        <v>2607</v>
+        <v>2616</v>
       </c>
       <c r="C84">
-        <v>4196</v>
+        <v>4195</v>
       </c>
       <c r="D84">
-        <v>1.2766737720003201</v>
+        <v>1.36353469699997</v>
       </c>
       <c r="E84">
-        <v>2547</v>
+        <v>2433</v>
       </c>
       <c r="F84">
-        <v>3093</v>
+        <v>3179</v>
       </c>
       <c r="G84">
-        <v>43.1213642029997</v>
+        <v>37.231818373999801</v>
       </c>
       <c r="H84">
-        <v>2562</v>
+        <v>2712</v>
       </c>
       <c r="I84">
-        <v>4101</v>
+        <v>3034</v>
       </c>
       <c r="J84">
-        <v>1480.1310839509999</v>
+        <v>3.9268010830000999</v>
       </c>
       <c r="K84">
+        <v>0.79204339963833603</v>
+      </c>
+      <c r="L84">
+        <v>0.54747762490726104</v>
+      </c>
+      <c r="M84">
+        <v>2.34146341463414</v>
+      </c>
+      <c r="N84">
+        <v>5.6906416805546902</v>
+      </c>
+      <c r="O84">
         <v>2649</v>
       </c>
-      <c r="L84">
+      <c r="P84">
         <v>4133</v>
       </c>
-      <c r="M84">
-        <v>0.118967790998794</v>
-      </c>
-      <c r="N84">
-        <f t="shared" si="1"/>
-        <v>2547</v>
-      </c>
-      <c r="O84" cm="1">
-        <f t="array" ref="O84">INDEX(CHOOSE({1,2,3},C84,F84,I84), MATCH(N84, CHOOSE({1,2,3},B84,E84,H84), 0))</f>
-        <v>3093</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q84">
+        <v>8.3011291000048004E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B85">
         <v>45</v>
       </c>
       <c r="C85">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D85">
-        <v>2.16136870003538E-2</v>
+        <v>2.0623956999997899E-2</v>
       </c>
       <c r="E85">
         <v>45</v>
@@ -5353,498 +5675,530 @@
         <v>75</v>
       </c>
       <c r="G85">
-        <v>6.2450356999761397E-2</v>
+        <v>3.3017083999993702E-2</v>
       </c>
       <c r="H85">
         <v>45</v>
       </c>
       <c r="I85">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J85">
-        <v>1.6806091000034901E-2</v>
+        <v>3.4121665999918997E-2</v>
       </c>
       <c r="K85">
+        <v>0.78947368421052599</v>
+      </c>
+      <c r="L85">
+        <v>0.467799706174504</v>
+      </c>
+      <c r="M85">
+        <v>1.5</v>
+      </c>
+      <c r="N85">
+        <v>1.67971085947212</v>
+      </c>
+      <c r="O85">
         <v>42</v>
       </c>
-      <c r="L85">
+      <c r="P85">
         <v>86</v>
       </c>
-      <c r="M85">
-        <v>2.4726589999772802E-3</v>
-      </c>
-      <c r="N85">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="O85" cm="1">
-        <f t="array" ref="O85">INDEX(CHOOSE({1,2,3},C85,F85,I85), MATCH(N85, CHOOSE({1,2,3},B85,E85,H85), 0))</f>
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q85">
+        <v>2.3691369999596602E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B86">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="C86">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="D86">
-        <v>7.6450444999863906E-2</v>
+        <v>8.8290205000021105E-2</v>
       </c>
       <c r="E86">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="F86">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="G86">
-        <v>6.5527324220001901</v>
+        <v>3.89804311199986</v>
       </c>
       <c r="H86">
-        <v>153</v>
+        <v>201</v>
       </c>
       <c r="I86">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="J86">
-        <v>8.0413533820010308</v>
+        <v>1.0308435770000399</v>
       </c>
       <c r="K86">
+        <v>1.3934426229508099</v>
+      </c>
+      <c r="L86">
+        <v>0.91038972963375797</v>
+      </c>
+      <c r="M86">
+        <v>2.125</v>
+      </c>
+      <c r="N86">
+        <v>4.9859176687947802</v>
+      </c>
+      <c r="O86">
         <v>195</v>
       </c>
-      <c r="L86">
+      <c r="P86">
         <v>186</v>
       </c>
-      <c r="M86">
-        <v>9.8440319998189807E-3</v>
-      </c>
-      <c r="N86">
-        <f t="shared" si="1"/>
-        <v>144</v>
-      </c>
-      <c r="O86" cm="1">
-        <f t="array" ref="O86">INDEX(CHOOSE({1,2,3},C86,F86,I86), MATCH(N86, CHOOSE({1,2,3},B86,E86,H86), 0))</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q86">
+        <v>1.1071623999896399E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B87">
-        <v>468</v>
+        <v>534</v>
       </c>
       <c r="C87">
-        <v>843</v>
+        <v>880</v>
       </c>
       <c r="D87">
-        <v>0.20701588200063201</v>
+        <v>0.24222220999990801</v>
       </c>
       <c r="E87">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="F87">
-        <v>821</v>
+        <v>734</v>
       </c>
       <c r="G87">
-        <v>1.9094450649990899</v>
+        <v>2.70988608400011</v>
       </c>
       <c r="H87">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="I87">
-        <v>842</v>
+        <v>763</v>
       </c>
       <c r="J87">
-        <v>14.3069675679998</v>
+        <v>0.42669070499982797</v>
       </c>
       <c r="K87">
+        <v>0.77464788732394296</v>
+      </c>
+      <c r="L87">
+        <v>0.51449915749096897</v>
+      </c>
+      <c r="M87">
+        <v>1.99267399267399</v>
+      </c>
+      <c r="N87">
+        <v>4.2339917638508204</v>
+      </c>
+      <c r="O87">
         <v>456</v>
       </c>
-      <c r="L87">
+      <c r="P87">
         <v>810</v>
       </c>
-      <c r="M87">
-        <v>1.5881639999861301E-2</v>
-      </c>
-      <c r="N87">
-        <f t="shared" si="1"/>
-        <v>465</v>
-      </c>
-      <c r="O87" cm="1">
-        <f t="array" ref="O87">INDEX(CHOOSE({1,2,3},C87,F87,I87), MATCH(N87, CHOOSE({1,2,3},B87,E87,H87), 0))</f>
-        <v>821</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q87">
+        <v>1.4086746999964799E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B88">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C88">
-        <v>247</v>
+        <v>316</v>
       </c>
       <c r="D88">
-        <v>8.7209846000405294E-2</v>
+        <v>0.102082873000199</v>
       </c>
       <c r="E88">
+        <v>165</v>
+      </c>
+      <c r="F88">
+        <v>207</v>
+      </c>
+      <c r="G88">
+        <v>7.6510776479999496</v>
+      </c>
+      <c r="H88">
         <v>174</v>
       </c>
-      <c r="F88">
-        <v>219</v>
-      </c>
-      <c r="G88">
-        <v>7.7574537620002904</v>
-      </c>
-      <c r="H88">
-        <v>189</v>
-      </c>
       <c r="I88">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="J88">
-        <v>2.3480517509997298</v>
+        <v>0.70585712599995498</v>
       </c>
       <c r="K88">
+        <v>1.13043478260869</v>
+      </c>
+      <c r="L88">
+        <v>0.67915214573101301</v>
+      </c>
+      <c r="M88">
+        <v>1.31067961165048</v>
+      </c>
+      <c r="N88">
+        <v>1.3583908685353501</v>
+      </c>
+      <c r="O88">
         <v>168</v>
       </c>
-      <c r="L88">
+      <c r="P88">
         <v>227</v>
       </c>
-      <c r="M88">
-        <v>5.7836030009639199E-3</v>
-      </c>
-      <c r="N88">
-        <f t="shared" si="1"/>
-        <v>174</v>
-      </c>
-      <c r="O88" cm="1">
-        <f t="array" ref="O88">INDEX(CHOOSE({1,2,3},C88,F88,I88), MATCH(N88, CHOOSE({1,2,3},B88,E88,H88), 0))</f>
-        <v>219</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q88">
+        <v>6.5346250000857201E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B89">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C89">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D89">
-        <v>2.0239485000274698E-2</v>
+        <v>2.06739620000462E-2</v>
       </c>
       <c r="E89">
         <v>51</v>
       </c>
       <c r="F89">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G89">
-        <v>3.53909419991396E-2</v>
+        <v>3.09644579999712E-2</v>
       </c>
       <c r="H89">
         <v>51</v>
       </c>
       <c r="I89">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="J89">
-        <v>2.1594956999251701E-2</v>
+        <v>2.9673490000050099E-2</v>
       </c>
       <c r="K89">
+        <v>0.78125</v>
+      </c>
+      <c r="L89">
+        <v>0.41339864235384199</v>
+      </c>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
         <v>45</v>
       </c>
-      <c r="L89">
+      <c r="P89">
         <v>82</v>
       </c>
-      <c r="M89">
-        <v>2.6820130005944499E-3</v>
-      </c>
-      <c r="N89">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="O89" cm="1">
-        <f t="array" ref="O89">INDEX(CHOOSE({1,2,3},C89,F89,I89), MATCH(N89, CHOOSE({1,2,3},B89,E89,H89), 0))</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q89">
+        <v>2.9291450000528099E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B90">
-        <v>762</v>
+        <v>810</v>
       </c>
       <c r="C90">
-        <v>1293</v>
+        <v>1307</v>
       </c>
       <c r="D90">
-        <v>0.34897158999956401</v>
+        <v>0.36175105699999199</v>
       </c>
       <c r="E90">
-        <v>732</v>
+        <v>771</v>
       </c>
       <c r="F90">
-        <v>1077</v>
+        <v>1085</v>
       </c>
       <c r="G90">
-        <v>11.010888488999599</v>
+        <v>13.5232544939999</v>
       </c>
       <c r="H90">
-        <v>750</v>
+        <v>831</v>
       </c>
       <c r="I90">
-        <v>1308</v>
+        <v>1131</v>
       </c>
       <c r="J90">
-        <v>51.366039520000399</v>
+        <v>1.2762332219999699</v>
       </c>
       <c r="K90">
+        <v>0.83073929961089499</v>
+      </c>
+      <c r="L90">
+        <v>0.58561603977613896</v>
+      </c>
+      <c r="M90">
+        <v>1.6244131455399</v>
+      </c>
+      <c r="N90">
+        <v>2.7823665507509898</v>
+      </c>
+      <c r="O90">
         <v>810</v>
       </c>
-      <c r="L90">
+      <c r="P90">
         <v>1302</v>
       </c>
-      <c r="M90">
-        <v>2.93969700014713E-2</v>
-      </c>
-      <c r="N90">
-        <f t="shared" si="1"/>
-        <v>732</v>
-      </c>
-      <c r="O90" cm="1">
-        <f t="array" ref="O90">INDEX(CHOOSE({1,2,3},C90,F90,I90), MATCH(N90, CHOOSE({1,2,3},B90,E90,H90), 0))</f>
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q90">
+        <v>2.6806281000062802E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B91">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="C91">
-        <v>747</v>
+        <v>784</v>
       </c>
       <c r="D91">
-        <v>0.19348392499887199</v>
+        <v>0.20495144300002699</v>
       </c>
       <c r="E91">
-        <v>405</v>
+        <v>477</v>
       </c>
       <c r="F91">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="G91">
-        <v>6.3049696779998996</v>
+        <v>4.9415041340000698</v>
       </c>
       <c r="H91">
-        <v>411</v>
+        <v>495</v>
       </c>
       <c r="I91">
-        <v>742</v>
+        <v>664</v>
       </c>
       <c r="J91">
-        <v>22.2490052620014</v>
+        <v>0.84009622799999295</v>
       </c>
       <c r="K91">
+        <v>0.78287461773700295</v>
+      </c>
+      <c r="L91">
+        <v>0.54628043861428999</v>
+      </c>
+      <c r="M91">
+        <v>1.8313725490196</v>
+      </c>
+      <c r="N91">
+        <v>3.1621220348316701</v>
+      </c>
+      <c r="O91">
         <v>492</v>
       </c>
-      <c r="L91">
+      <c r="P91">
         <v>804</v>
       </c>
-      <c r="M91">
-        <v>1.4025772999957499E-2</v>
-      </c>
-      <c r="N91">
-        <f t="shared" si="1"/>
-        <v>405</v>
-      </c>
-      <c r="O91" cm="1">
-        <f t="array" ref="O91">INDEX(CHOOSE({1,2,3},C91,F91,I91), MATCH(N91, CHOOSE({1,2,3},B91,E91,H91), 0))</f>
-        <v>641</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q91">
+        <v>1.45201729999371E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B92">
+        <v>201</v>
+      </c>
+      <c r="C92">
+        <v>360</v>
+      </c>
+      <c r="D92">
+        <v>8.4501767999881794E-2</v>
+      </c>
+      <c r="E92">
         <v>189</v>
       </c>
-      <c r="C92">
-        <v>328</v>
-      </c>
-      <c r="D92">
-        <v>8.3867155999541795E-2</v>
-      </c>
-      <c r="E92">
-        <v>156</v>
-      </c>
       <c r="F92">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G92">
-        <v>3.5045737450000098</v>
+        <v>0.74050139099995205</v>
       </c>
       <c r="H92">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="I92">
-        <v>318</v>
+        <v>280</v>
       </c>
       <c r="J92">
-        <v>2.0588836819988501</v>
+        <v>0.27861844900007698</v>
       </c>
       <c r="K92">
+        <v>0.82481751824817495</v>
+      </c>
+      <c r="L92">
+        <v>0.552338231018762</v>
+      </c>
+      <c r="M92">
+        <v>1.46428571428571</v>
+      </c>
+      <c r="N92">
+        <v>2.0784977895644898</v>
+      </c>
+      <c r="O92">
         <v>234</v>
       </c>
-      <c r="L92">
+      <c r="P92">
         <v>379</v>
       </c>
-      <c r="M92">
-        <v>7.0327049998013501E-3</v>
-      </c>
-      <c r="N92">
-        <f t="shared" si="1"/>
-        <v>156</v>
-      </c>
-      <c r="O92" cm="1">
-        <f t="array" ref="O92">INDEX(CHOOSE({1,2,3},C92,F92,I92), MATCH(N92, CHOOSE({1,2,3},B92,E92,H92), 0))</f>
-        <v>274</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q92">
+        <v>1.15172750001875E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B93">
         <f>AVERAGE(B2:B92)</f>
-        <v>424.58241758241758</v>
+        <v>432.62637362637361</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:O93" si="2">AVERAGE(C2:C92)</f>
-        <v>700.85714285714289</v>
+        <f t="shared" ref="C93:Q93" si="0">AVERAGE(C2:C92)</f>
+        <v>713.02197802197804</v>
       </c>
       <c r="D93">
-        <f t="shared" si="2"/>
-        <v>0.2557809118241986</v>
+        <f t="shared" si="0"/>
+        <v>0.22353519701097965</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
-        <v>409.28571428571428</v>
+        <f t="shared" si="0"/>
+        <v>419.14285714285717</v>
       </c>
       <c r="F93">
-        <f t="shared" si="2"/>
-        <v>576.85714285714289</v>
+        <f t="shared" si="0"/>
+        <v>567.79120879120876</v>
       </c>
       <c r="G93">
-        <f t="shared" si="2"/>
-        <v>5.2100398317252195</v>
+        <f t="shared" si="0"/>
+        <v>5.4016314278461497</v>
       </c>
       <c r="H93">
-        <f t="shared" si="2"/>
-        <v>414.16483516483515</v>
+        <f t="shared" si="0"/>
+        <v>438.32967032967031</v>
       </c>
       <c r="I93">
-        <f t="shared" si="2"/>
-        <v>688.93406593406598</v>
+        <f t="shared" si="0"/>
+        <v>583.7032967032967</v>
       </c>
       <c r="J93">
-        <f t="shared" si="2"/>
-        <v>90.731184809670239</v>
+        <f t="shared" si="0"/>
+        <v>0.77860720993406562</v>
       </c>
       <c r="K93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
+        <v>0.85671706247441792</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="0"/>
+        <v>0.54360767540641308</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="0"/>
+        <v>1.5012653633187614</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="0"/>
+        <v>2.0951071147395357</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="0"/>
         <v>422.96703296703299</v>
       </c>
-      <c r="L93">
-        <f t="shared" si="2"/>
+      <c r="P93">
+        <f t="shared" si="0"/>
         <v>684.8901098901099</v>
       </c>
-      <c r="M93">
-        <f t="shared" si="2"/>
-        <v>1.7643431417601756E-2</v>
-      </c>
-      <c r="N93">
-        <f t="shared" si="2"/>
-        <v>400.35164835164835</v>
-      </c>
-      <c r="O93">
-        <f t="shared" si="2"/>
-        <v>617.86813186813185</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q93">
+        <f t="shared" si="0"/>
+        <v>1.4973839054953413E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B94">
         <f>($B$93-B93)/$B$93</f>
         <v>0</v>
       </c>
       <c r="C94">
-        <f>($C$93 - C93)/$C$93</f>
+        <f>($C$93-C93)/$C$93</f>
         <v>0</v>
       </c>
       <c r="D94">
-        <f>($D$93 - D93)/$D$93</f>
+        <f>($D$93-D93)/$D$93</f>
         <v>0</v>
       </c>
       <c r="E94">
         <f>($B$93-E93)/$B$93</f>
-        <v>3.6027641897662867E-2</v>
+        <v>3.1166653966318576E-2</v>
       </c>
       <c r="F94">
-        <f>($C$93 - F93)/$C$93</f>
-        <v>0.17692621280065227</v>
+        <f>($C$93-F93)/$C$93</f>
+        <v>0.20368343993218779</v>
       </c>
       <c r="G94">
-        <f>($D$93 - G93)/$D$93</f>
-        <v>-19.369150280088704</v>
+        <f>($D$93-G93)/$D$93</f>
+        <v>-23.164567817840474</v>
       </c>
       <c r="H94">
         <f>($B$93-H93)/$B$93</f>
-        <v>2.4536066464787652E-2</v>
+        <v>-1.3182961213137235E-2</v>
       </c>
       <c r="I94">
-        <f>($C$93 - I93)/$C$93</f>
-        <v>1.7012135846216539E-2</v>
+        <f>($C$93-I93)/$C$93</f>
+        <v>0.18136703398320109</v>
       </c>
       <c r="J94">
-        <f>($D$93 - J93)/$D$93</f>
-        <v>-353.72226665620343</v>
-      </c>
-      <c r="K94">
-        <f>($B$93-K93)/$B$93</f>
-        <v>3.8046432176410492E-3</v>
-      </c>
-      <c r="L94">
-        <f>($C$93 - L93)/$C$93</f>
-        <v>2.2782150584841201E-2</v>
-      </c>
-      <c r="M94">
-        <f>($D$93 - M93)/$D$93</f>
-        <v>0.93102131315518843</v>
-      </c>
-      <c r="N94">
-        <f>($B$93-N93)/$B$93</f>
-        <v>5.7069648264616808E-2</v>
+        <f>($D$93-J93)/$D$93</f>
+        <v>-2.4831526325396611</v>
       </c>
       <c r="O94">
-        <f>($C$93 - O93)/$C$93</f>
-        <v>0.11841073724481803</v>
+        <f>($B$93-O93)/$B$93</f>
+        <v>2.2327211765602276E-2</v>
+      </c>
+      <c r="P94">
+        <f>($C$93-P93)/$C$93</f>
+        <v>3.9454419357324515E-2</v>
+      </c>
+      <c r="Q94">
+        <f>($D$93-Q93)/$D$93</f>
+        <v>0.93301350635077873</v>
       </c>
     </row>
   </sheetData>
